--- a/AAII_Financials/Quarterly/PACV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PACV_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>PACV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,98 +665,101 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2500</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1300</v>
       </c>
       <c r="G8" s="3">
         <v>1300</v>
       </c>
       <c r="H8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I8" s="3">
         <v>1200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
@@ -775,32 +778,35 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E9" s="3">
         <v>900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1700</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1000</v>
       </c>
       <c r="G9" s="3">
         <v>1000</v>
       </c>
       <c r="H9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="3">
         <v>900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
@@ -816,22 +822,25 @@
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>800</v>
-      </c>
-      <c r="F10" s="3">
-        <v>300</v>
       </c>
       <c r="G10" s="3">
         <v>300</v>
@@ -840,11 +849,11 @@
         <v>300</v>
       </c>
       <c r="I10" s="3">
+        <v>300</v>
+      </c>
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
@@ -860,11 +869,14 @@
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -995,8 +1014,8 @@
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1007,19 +1026,22 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-500</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,83 +1253,89 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-500</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-100</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
       </c>
       <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="3">
-        <v>-100</v>
+      <c r="N21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O21" s="3">
         <v>-100</v>
       </c>
       <c r="P21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
       </c>
       <c r="H22" s="3">
+        <v>200</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1310,52 +1349,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
       </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1748,54 +1817,60 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,32 +2052,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2003,16 +2089,19 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,13 +2144,16 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>1300</v>
       </c>
       <c r="E43" s="3">
         <v>200</v>
@@ -2070,16 +2162,16 @@
         <v>200</v>
       </c>
       <c r="G43" s="3">
+        <v>200</v>
+      </c>
+      <c r="H43" s="3">
         <v>300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>200</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2096,22 +2188,25 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>800</v>
+      </c>
+      <c r="E44" s="3">
         <v>500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>400</v>
-      </c>
-      <c r="F44" s="3">
-        <v>200</v>
       </c>
       <c r="G44" s="3">
         <v>200</v>
@@ -2120,36 +2215,39 @@
         <v>200</v>
       </c>
       <c r="I44" s="3">
+        <v>200</v>
+      </c>
+      <c r="J44" s="3">
         <v>100</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2158,7 +2256,7 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2187,32 +2285,35 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>700</v>
+        <v>2700</v>
       </c>
       <c r="E46" s="3">
         <v>700</v>
       </c>
       <c r="F46" s="3">
+        <v>700</v>
+      </c>
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -2223,16 +2324,19 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,13 +2379,16 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>2300</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -2299,7 +2406,7 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2319,13 +2426,16 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1000</v>
+        <v>3700</v>
       </c>
       <c r="E49" s="3">
         <v>1000</v>
@@ -2342,8 +2452,8 @@
       <c r="I49" s="3">
         <v>1000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
+      <c r="J49" s="3">
+        <v>1000</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>5</v>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2474,8 +2593,8 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
@@ -2486,17 +2605,20 @@
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,43 +2661,46 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1800</v>
+        <v>8800</v>
       </c>
       <c r="E54" s="3">
         <v>1800</v>
       </c>
       <c r="F54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G54" s="3">
         <v>1600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1500</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3">
         <v>100</v>
@@ -2583,8 +2708,11 @@
       <c r="P54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,40 +2748,41 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="E57" s="3">
         <v>800</v>
       </c>
       <c r="F57" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G57" s="3">
         <v>600</v>
       </c>
       <c r="H57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I57" s="3">
         <v>500</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
+        <v>200</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
-      </c>
-      <c r="M57" s="3">
-        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
@@ -2663,60 +2793,66 @@
       <c r="P57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3">
         <v>1300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1100</v>
       </c>
       <c r="G58" s="3">
         <v>1100</v>
       </c>
       <c r="H58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>900</v>
-      </c>
-      <c r="J58" s="3">
-        <v>800</v>
       </c>
       <c r="K58" s="3">
         <v>800</v>
       </c>
       <c r="L58" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M58" s="3">
         <v>400</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
-      </c>
-      <c r="E59" s="3">
-        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
@@ -2725,7 +2861,7 @@
         <v>300</v>
       </c>
       <c r="H59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>400</v>
@@ -2734,7 +2870,7 @@
         <v>400</v>
       </c>
       <c r="K59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
@@ -2743,109 +2879,118 @@
         <v>300</v>
       </c>
       <c r="N59" s="3">
+        <v>300</v>
+      </c>
+      <c r="O59" s="3">
         <v>200</v>
-      </c>
-      <c r="O59" s="3">
-        <v>300</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E60" s="3">
         <v>2700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1900</v>
       </c>
       <c r="H60" s="3">
         <v>1900</v>
       </c>
       <c r="I60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J60" s="3">
         <v>1800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E61" s="3">
         <v>2400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2500</v>
-      </c>
-      <c r="F61" s="3">
-        <v>2300</v>
       </c>
       <c r="G61" s="3">
         <v>2300</v>
       </c>
       <c r="H61" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I61" s="3">
         <v>2200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
+      <c r="D62" s="3">
+        <v>900</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>5</v>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E66" s="3">
         <v>5100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4700</v>
-      </c>
-      <c r="F66" s="3">
-        <v>4300</v>
       </c>
       <c r="G66" s="3">
         <v>4300</v>
       </c>
       <c r="H66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I66" s="3">
         <v>4100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1500</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1400</v>
       </c>
       <c r="N66" s="3">
         <v>1400</v>
       </c>
       <c r="O66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5600</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-5400</v>
       </c>
       <c r="O72" s="3">
         <v>-5400</v>
       </c>
       <c r="P72" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1600</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-1400</v>
       </c>
       <c r="M76" s="3">
         <v>-1400</v>
       </c>
       <c r="N76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O76" s="3">
         <v>-1300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,34 +3825,35 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,37 +4105,40 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
@@ -3934,10 +4150,13 @@
         <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,32 +4173,33 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
       </c>
@@ -3992,14 +4212,17 @@
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,34 +4312,37 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E94" s="3">
         <v>100</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1100</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,40 +4566,43 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>200</v>
       </c>
       <c r="L100" s="3">
         <v>200</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
@@ -4366,10 +4611,13 @@
         <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,32 +4660,35 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -4451,9 +4702,12 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PACV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PACV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>PACV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,115 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F8" s="3">
         <v>2300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -781,38 +789,44 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F9" s="3">
         <v>2400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
@@ -825,41 +839,47 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>800</v>
-      </c>
-      <c r="G10" s="3">
-        <v>300</v>
-      </c>
-      <c r="H10" s="3">
-        <v>300</v>
       </c>
       <c r="I10" s="3">
         <v>300</v>
       </c>
       <c r="J10" s="3">
+        <v>300</v>
+      </c>
+      <c r="K10" s="3">
+        <v>300</v>
+      </c>
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
@@ -872,11 +892,17 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1017,11 +1057,11 @@
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1029,14 +1069,20 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1044,10 +1090,10 @@
         <v>200</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F17" s="3">
         <v>3500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1600</v>
       </c>
       <c r="I17" s="3">
         <v>1400</v>
       </c>
       <c r="J17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
       <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-200</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1256,57 +1324,69 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1314,7 +1394,7 @@
         <v>400</v>
       </c>
       <c r="E22" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F22" s="3">
         <v>400</v>
@@ -1323,25 +1403,25 @@
         <v>200</v>
       </c>
       <c r="H22" s="3">
+        <v>400</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
       <c r="J22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>300</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1352,22 +1432,28 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-300</v>
       </c>
       <c r="H23" s="3">
         <v>-500</v>
@@ -1376,16 +1462,16 @@
         <v>-300</v>
       </c>
       <c r="J23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
@@ -1394,13 +1480,19 @@
         <v>-100</v>
       </c>
       <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,22 +1591,28 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-300</v>
       </c>
       <c r="H26" s="3">
         <v>-500</v>
@@ -1517,16 +1621,16 @@
         <v>-300</v>
       </c>
       <c r="J26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>-200</v>
@@ -1535,27 +1639,33 @@
         <v>-100</v>
       </c>
       <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-300</v>
       </c>
       <c r="H27" s="3">
         <v>-500</v>
@@ -1564,16 +1674,16 @@
         <v>-300</v>
       </c>
       <c r="J27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-200</v>
@@ -1582,13 +1692,19 @@
         <v>-100</v>
       </c>
       <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1820,24 +1960,30 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-300</v>
       </c>
       <c r="H33" s="3">
         <v>-500</v>
@@ -1846,16 +1992,16 @@
         <v>-300</v>
       </c>
       <c r="J33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-200</v>
@@ -1864,13 +2010,19 @@
         <v>-100</v>
       </c>
       <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,22 +2068,28 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-300</v>
       </c>
       <c r="H35" s="3">
         <v>-500</v>
@@ -1940,16 +2098,16 @@
         <v>-300</v>
       </c>
       <c r="J35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-200</v>
@@ -1958,65 +2116,77 @@
         <v>-100</v>
       </c>
       <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,37 +2225,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
-      <c r="H41" s="3">
-        <v>100</v>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I41" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2092,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -2100,8 +2274,14 @@
       <c r="Q41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,37 +2327,43 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F43" s="3">
         <v>1300</v>
-      </c>
-      <c r="E43" s="3">
-        <v>200</v>
-      </c>
-      <c r="F43" s="3">
-        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>200</v>
       </c>
       <c r="J43" s="3">
+        <v>300</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2191,58 +2377,70 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F44" s="3">
         <v>800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>400</v>
-      </c>
-      <c r="G44" s="3">
-        <v>200</v>
-      </c>
-      <c r="H44" s="3">
-        <v>200</v>
       </c>
       <c r="I44" s="3">
         <v>200</v>
       </c>
       <c r="J44" s="3">
+        <v>200</v>
+      </c>
+      <c r="K44" s="3">
+        <v>200</v>
+      </c>
+      <c r="L44" s="3">
         <v>100</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2250,19 +2448,19 @@
         <v>300</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2288,38 +2486,44 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F46" s="3">
         <v>2700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2327,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
@@ -2335,8 +2539,14 @@
       <c r="Q46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,19 +2592,25 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F48" s="3">
         <v>2300</v>
-      </c>
-      <c r="E48" s="3">
-        <v>100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -2409,10 +2625,10 @@
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2429,19 +2645,25 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F49" s="3">
         <v>3700</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1000</v>
       </c>
       <c r="G49" s="3">
         <v>1000</v>
@@ -2455,11 +2677,11 @@
       <c r="J49" s="3">
         <v>1000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
+      <c r="K49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L49" s="3">
+        <v>1000</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2596,11 +2836,11 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
@@ -2608,17 +2848,23 @@
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,40 +2910,46 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F54" s="3">
         <v>8800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1500</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N54" s="3">
         <v>0</v>
@@ -2706,13 +2958,19 @@
         <v>100</v>
       </c>
       <c r="P54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,46 +3009,48 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
@@ -2796,22 +3058,28 @@
       <c r="Q57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="E58" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G58" s="3">
         <v>1200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1100</v>
       </c>
       <c r="H58" s="3">
         <v>1100</v>
@@ -2820,48 +3088,54 @@
         <v>1000</v>
       </c>
       <c r="J58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L58" s="3">
         <v>900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="E59" s="3">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="F59" s="3">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="G59" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="H59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I59" s="3">
         <v>400</v>
@@ -2873,131 +3147,149 @@
         <v>400</v>
       </c>
       <c r="L59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N59" s="3">
         <v>300</v>
       </c>
       <c r="O59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
       </c>
       <c r="Q59" s="3">
+        <v>200</v>
+      </c>
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F60" s="3">
         <v>3900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F61" s="3">
         <v>8700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>500</v>
-      </c>
-      <c r="O61" s="3">
-        <v>1000</v>
-      </c>
-      <c r="P61" s="3">
-        <v>1100</v>
       </c>
       <c r="Q61" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S61" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>800</v>
+      </c>
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F66" s="3">
         <v>13400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-10000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-8600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-8000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-7800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-7500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-7000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-6700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-6300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-6000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-5700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-5600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-5400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,74 +4086,86 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-300</v>
       </c>
       <c r="H81" s="3">
         <v>-500</v>
@@ -3784,16 +4174,16 @@
         <v>-300</v>
       </c>
       <c r="J81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-200</v>
@@ -3802,13 +4192,19 @@
         <v>-100</v>
       </c>
       <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,40 +4222,42 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
+        <v>200</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,43 +4536,49 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2000</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-400</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
       </c>
       <c r="H89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
@@ -4153,10 +4587,16 @@
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,19 +4614,21 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
@@ -4194,18 +4636,18 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
@@ -4215,14 +4657,20 @@
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,40 +4769,46 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-4100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-1100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4362,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>500</v>
+      </c>
+      <c r="F100" s="3">
         <v>6500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +5161,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4672,29 +5176,29 @@
         <v>300</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>300</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -4705,9 +5209,15 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PACV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PACV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>PACV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,122 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E8" s="3">
         <v>8700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2500</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1300</v>
       </c>
       <c r="J8" s="3">
         <v>1300</v>
       </c>
       <c r="K8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L8" s="3">
         <v>1200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
@@ -795,41 +799,44 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E9" s="3">
         <v>7700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1700</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1000</v>
       </c>
       <c r="J9" s="3">
         <v>1000</v>
       </c>
       <c r="K9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L9" s="3">
         <v>900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>500</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
@@ -845,31 +852,34 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="E10" s="3">
         <v>1000</v>
       </c>
       <c r="F10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>800</v>
-      </c>
-      <c r="I10" s="3">
-        <v>300</v>
       </c>
       <c r="J10" s="3">
         <v>300</v>
@@ -878,11 +888,11 @@
         <v>300</v>
       </c>
       <c r="L10" s="3">
+        <v>300</v>
+      </c>
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
@@ -898,11 +908,14 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,31 +1045,34 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
@@ -1063,8 +1083,8 @@
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1075,14 +1095,17 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1096,7 +1119,7 @@
         <v>200</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E17" s="3">
         <v>9300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
       </c>
       <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
       <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1330,68 +1364,74 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-100</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R21" s="3">
         <v>-100</v>
       </c>
       <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
         <v>400</v>
@@ -1400,31 +1440,31 @@
         <v>400</v>
       </c>
       <c r="G22" s="3">
+        <v>400</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
       </c>
       <c r="K22" s="3">
+        <v>200</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
       </c>
       <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
       </c>
       <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1966,63 +2036,69 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
       </c>
       <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
       </c>
       <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,41 +2313,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2272,16 +2359,19 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,22 +2423,25 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
         <v>1800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1300</v>
-      </c>
-      <c r="G43" s="3">
-        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
@@ -2357,16 +2450,16 @@
         <v>200</v>
       </c>
       <c r="J43" s="3">
+        <v>200</v>
+      </c>
+      <c r="K43" s="3">
         <v>300</v>
-      </c>
-      <c r="K43" s="3">
-        <v>200</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2383,11 +2476,14 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2395,19 +2491,19 @@
         <v>1700</v>
       </c>
       <c r="E44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F44" s="3">
         <v>1300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>400</v>
-      </c>
-      <c r="I44" s="3">
-        <v>200</v>
       </c>
       <c r="J44" s="3">
         <v>200</v>
@@ -2416,36 +2512,39 @@
         <v>200</v>
       </c>
       <c r="L44" s="3">
+        <v>200</v>
+      </c>
+      <c r="M44" s="3">
         <v>100</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
+      <c r="N44" s="3">
+        <v>0</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
@@ -2454,7 +2553,7 @@
         <v>300</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2463,7 +2562,7 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2492,41 +2591,44 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E46" s="3">
         <v>4300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2700</v>
-      </c>
-      <c r="G46" s="3">
-        <v>700</v>
       </c>
       <c r="H46" s="3">
         <v>700</v>
       </c>
       <c r="I46" s="3">
+        <v>700</v>
+      </c>
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
@@ -2537,16 +2639,19 @@
         <v>0</v>
       </c>
       <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
       <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2607,13 +2715,13 @@
         <v>2100</v>
       </c>
       <c r="E48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F48" s="3">
         <v>2200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -2631,7 +2739,7 @@
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2651,22 +2759,25 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="E49" s="3">
         <v>3600</v>
       </c>
       <c r="F49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G49" s="3">
         <v>3700</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1000</v>
       </c>
       <c r="H49" s="3">
         <v>1000</v>
@@ -2683,8 +2794,8 @@
       <c r="L49" s="3">
         <v>1000</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
+      <c r="M49" s="3">
+        <v>1000</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2842,8 +2962,8 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
@@ -2854,17 +2974,20 @@
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,52 +3039,55 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8800</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1800</v>
       </c>
       <c r="H54" s="3">
         <v>1800</v>
       </c>
       <c r="I54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J54" s="3">
         <v>1600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1500</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
       <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
         <v>100</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
       <c r="Q54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R54" s="3">
         <v>100</v>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,49 +3141,50 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
         <v>2900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>800</v>
       </c>
       <c r="H57" s="3">
         <v>800</v>
       </c>
       <c r="I57" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="J57" s="3">
         <v>600</v>
       </c>
       <c r="K57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L57" s="3">
         <v>500</v>
       </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
       <c r="O57" s="3">
+        <v>200</v>
+      </c>
+      <c r="P57" s="3">
         <v>100</v>
-      </c>
-      <c r="P57" s="3">
-        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
@@ -3064,28 +3195,31 @@
       <c r="S57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="E58" s="3">
         <v>1200</v>
       </c>
       <c r="F58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G58" s="3">
         <v>1400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1000</v>
       </c>
       <c r="J58" s="3">
         <v>1000</v>
@@ -3094,48 +3228,51 @@
         <v>1000</v>
       </c>
       <c r="L58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M58" s="3">
         <v>900</v>
-      </c>
-      <c r="M58" s="3">
-        <v>800</v>
       </c>
       <c r="N58" s="3">
         <v>800</v>
       </c>
       <c r="O58" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="P58" s="3">
         <v>400</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1300</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1100</v>
       </c>
       <c r="F59" s="3">
         <v>1100</v>
       </c>
       <c r="G59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H59" s="3">
         <v>700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>400</v>
       </c>
       <c r="I59" s="3">
         <v>400</v>
@@ -3153,7 +3290,7 @@
         <v>400</v>
       </c>
       <c r="N59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O59" s="3">
         <v>300</v>
@@ -3162,122 +3299,131 @@
         <v>300</v>
       </c>
       <c r="Q59" s="3">
+        <v>300</v>
+      </c>
+      <c r="R59" s="3">
         <v>200</v>
-      </c>
-      <c r="R59" s="3">
-        <v>300</v>
       </c>
       <c r="S59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E60" s="3">
         <v>5400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2000</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1900</v>
       </c>
       <c r="K60" s="3">
         <v>1900</v>
       </c>
       <c r="L60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M60" s="3">
         <v>1800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E61" s="3">
         <v>10200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2500</v>
-      </c>
-      <c r="I61" s="3">
-        <v>2300</v>
       </c>
       <c r="J61" s="3">
         <v>2300</v>
       </c>
       <c r="K61" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L61" s="3">
         <v>2200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3288,11 +3434,11 @@
         <v>800</v>
       </c>
       <c r="F62" s="3">
+        <v>800</v>
+      </c>
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E66" s="3">
         <v>16500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4700</v>
-      </c>
-      <c r="I66" s="3">
-        <v>4300</v>
       </c>
       <c r="J66" s="3">
         <v>4300</v>
       </c>
       <c r="K66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="L66" s="3">
         <v>4100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1500</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1400</v>
       </c>
       <c r="Q66" s="3">
         <v>1400</v>
       </c>
       <c r="R66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S66" s="3">
         <v>1600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5600</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-5400</v>
       </c>
       <c r="R72" s="3">
         <v>-5400</v>
       </c>
       <c r="S72" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="T72" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1600</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-1400</v>
       </c>
       <c r="P76" s="3">
         <v>-1400</v>
       </c>
       <c r="Q76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="R76" s="3">
         <v>-1300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
       </c>
       <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4235,8 +4434,8 @@
       <c r="E83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
+      <c r="F83" s="3">
+        <v>200</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
@@ -4250,17 +4449,17 @@
       <c r="J83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,46 +4756,49 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-600</v>
+        <v>-1500</v>
       </c>
       <c r="E89" s="3">
         <v>-600</v>
       </c>
       <c r="F89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G89" s="3">
         <v>-2000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
@@ -4593,10 +4810,13 @@
         <v>-100</v>
       </c>
       <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,41 +4836,42 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
@@ -4663,14 +4884,17 @@
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,43 +5002,46 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-4100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>100</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1100</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,49 +5304,52 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>200</v>
       </c>
       <c r="O100" s="3">
         <v>200</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
@@ -5112,10 +5358,13 @@
         <v>100</v>
       </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,41 +5416,44 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -5215,9 +5467,12 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PACV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PACV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>PACV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,128 +665,135 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F8" s="3">
         <v>7500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>8700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>6700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>700</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
@@ -802,47 +809,53 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F9" s="3">
         <v>7100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>7700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>5700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>500</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
@@ -855,50 +868,56 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>900</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>800</v>
-      </c>
-      <c r="J10" s="3">
-        <v>300</v>
-      </c>
-      <c r="K10" s="3">
-        <v>300</v>
       </c>
       <c r="L10" s="3">
         <v>300</v>
       </c>
       <c r="M10" s="3">
+        <v>300</v>
+      </c>
+      <c r="N10" s="3">
+        <v>300</v>
+      </c>
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
@@ -911,11 +930,17 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1074,11 +1113,11 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
@@ -1086,11 +1125,11 @@
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1098,14 +1137,20 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1122,10 +1167,10 @@
         <v>200</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F17" s="3">
         <v>9100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>9300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>7100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1600</v>
       </c>
       <c r="L17" s="3">
         <v>1400</v>
       </c>
       <c r="M17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
-      </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
       </c>
       <c r="S17" s="3">
+        <v>200</v>
+      </c>
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
       <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,13 +1378,15 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1367,66 +1434,78 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,16 +1513,16 @@
         <v>500</v>
       </c>
       <c r="E22" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="F22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G22" s="3">
         <v>400</v>
       </c>
       <c r="H22" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I22" s="3">
         <v>400</v>
@@ -1452,25 +1531,25 @@
         <v>200</v>
       </c>
       <c r="K22" s="3">
+        <v>400</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
-        <v>100</v>
-      </c>
       <c r="M22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
       <c r="O22" s="3">
+        <v>300</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1481,31 +1560,37 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-300</v>
       </c>
       <c r="K23" s="3">
         <v>-500</v>
@@ -1514,16 +1599,16 @@
         <v>-300</v>
       </c>
       <c r="M23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>-200</v>
@@ -1532,13 +1617,19 @@
         <v>-100</v>
       </c>
       <c r="S23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,31 +1746,37 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-300</v>
       </c>
       <c r="K26" s="3">
         <v>-500</v>
@@ -1682,16 +1785,16 @@
         <v>-300</v>
       </c>
       <c r="M26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>-200</v>
@@ -1700,36 +1803,42 @@
         <v>-100</v>
       </c>
       <c r="S26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-300</v>
       </c>
       <c r="K27" s="3">
         <v>-500</v>
@@ -1738,16 +1847,16 @@
         <v>-300</v>
       </c>
       <c r="M27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>-200</v>
@@ -1756,13 +1865,19 @@
         <v>-100</v>
       </c>
       <c r="S27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,13 +2118,19 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2039,33 +2178,39 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-300</v>
       </c>
       <c r="K33" s="3">
         <v>-500</v>
@@ -2074,16 +2219,16 @@
         <v>-300</v>
       </c>
       <c r="M33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>-200</v>
@@ -2092,13 +2237,19 @@
         <v>-100</v>
       </c>
       <c r="S33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,31 +2304,37 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-300</v>
       </c>
       <c r="K35" s="3">
         <v>-500</v>
@@ -2186,16 +2343,16 @@
         <v>-300</v>
       </c>
       <c r="M35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>-200</v>
@@ -2204,74 +2361,86 @@
         <v>-100</v>
       </c>
       <c r="S35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,46 +2485,48 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
+      <c r="D41" s="3">
+        <v>500</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
+      <c r="K41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L41" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -2362,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -2370,8 +2543,14 @@
       <c r="T41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2435,37 +2620,37 @@
         <v>1400</v>
       </c>
       <c r="E43" s="3">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="F43" s="3">
         <v>1400</v>
       </c>
       <c r="G43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I43" s="3">
         <v>1300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>200</v>
       </c>
       <c r="K43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
       </c>
       <c r="M43" s="3">
+        <v>300</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2479,96 +2664,108 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F44" s="3">
         <v>1700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>400</v>
-      </c>
-      <c r="J44" s="3">
-        <v>200</v>
-      </c>
-      <c r="K44" s="3">
-        <v>200</v>
       </c>
       <c r="L44" s="3">
         <v>200</v>
       </c>
       <c r="M44" s="3">
+        <v>200</v>
+      </c>
+      <c r="N44" s="3">
+        <v>200</v>
+      </c>
+      <c r="O44" s="3">
         <v>100</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
       </c>
       <c r="F45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2594,47 +2791,53 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F46" s="3">
         <v>3300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
@@ -2642,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
@@ -2650,8 +2853,14 @@
       <c r="T46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,28 +2915,34 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F48" s="3">
         <v>2100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -2742,10 +2957,10 @@
         <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2762,28 +2977,34 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E49" s="3">
         <v>3500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G49" s="3">
         <v>3600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>3700</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1000</v>
       </c>
       <c r="J49" s="3">
         <v>1000</v>
@@ -2797,11 +3018,11 @@
       <c r="M49" s="3">
         <v>1000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
+      <c r="N49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O49" s="3">
+        <v>1000</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>5</v>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2965,11 +3204,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>5</v>
@@ -2977,17 +3216,23 @@
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,49 +3287,55 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F54" s="3">
         <v>9000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>10000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>9100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>8800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1500</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
@@ -3093,13 +3344,19 @@
         <v>100</v>
       </c>
       <c r="S54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>100</v>
+      </c>
+      <c r="V54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,55 +3401,57 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
@@ -3198,87 +3459,99 @@
       <c r="T57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>200</v>
+      </c>
+      <c r="V57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F58" s="3">
         <v>1900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1400</v>
       </c>
       <c r="H58" s="3">
         <v>1200</v>
       </c>
       <c r="I58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K58" s="3">
         <v>1100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1000</v>
       </c>
       <c r="L58" s="3">
         <v>1000</v>
       </c>
       <c r="M58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O58" s="3">
         <v>900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>400</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
-      </c>
-      <c r="I59" s="3">
-        <v>400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>400</v>
       </c>
       <c r="K59" s="3">
         <v>400</v>
@@ -3293,158 +3566,176 @@
         <v>400</v>
       </c>
       <c r="O59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q59" s="3">
         <v>300</v>
       </c>
       <c r="R59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S59" s="3">
         <v>300</v>
       </c>
       <c r="T59" s="3">
+        <v>200</v>
+      </c>
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F60" s="3">
         <v>6000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>5400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E61" s="3">
         <v>10600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>10600</v>
+      </c>
+      <c r="G61" s="3">
         <v>10200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>9300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>8700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>500</v>
-      </c>
-      <c r="R61" s="3">
-        <v>1000</v>
-      </c>
-      <c r="S61" s="3">
-        <v>1100</v>
       </c>
       <c r="T61" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V61" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F62" s="3">
         <v>800</v>
       </c>
       <c r="G62" s="3">
+        <v>800</v>
+      </c>
+      <c r="H62" s="3">
+        <v>800</v>
+      </c>
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>18700</v>
+      </c>
+      <c r="F66" s="3">
         <v>17400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>16500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>14500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>13400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-13900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-11900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-10800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-10000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-8600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-8000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-7800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-7500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-7000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-6700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-6300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-6000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-5600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-5400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-5400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-8400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-6500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-5400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-4600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,92 +4661,104 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-300</v>
       </c>
       <c r="K81" s="3">
         <v>-500</v>
@@ -4378,16 +4767,16 @@
         <v>-300</v>
       </c>
       <c r="M81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>-200</v>
@@ -4396,13 +4785,19 @@
         <v>-100</v>
       </c>
       <c r="S81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4437,11 +4834,11 @@
       <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
+      <c r="G83" s="3">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>200</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
@@ -4452,20 +4849,20 @@
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,52 +5186,58 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2000</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-400</v>
       </c>
       <c r="J89" s="3">
         <v>-200</v>
       </c>
       <c r="K89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
@@ -4813,10 +5246,16 @@
         <v>-100</v>
       </c>
       <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,28 +5276,30 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>5</v>
@@ -4866,18 +5307,18 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
@@ -4887,14 +5328,20 @@
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,49 +5458,55 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-4100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-1100</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5792,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F100" s="3">
         <v>1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>6500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>2000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
-      <c r="R100" s="3">
-        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>100</v>
       </c>
       <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,47 +5916,53 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-500</v>
-      </c>
-      <c r="E102" s="3">
-        <v>300</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-100</v>
       </c>
       <c r="G102" s="3">
         <v>300</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I102" s="3">
+        <v>300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -5470,9 +5973,15 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PACV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PACV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>PACV</t>
   </si>
@@ -1237,8 +1237,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
+      <c r="D17" s="3">
+        <v>8000</v>
       </c>
       <c r="E17" s="3">
         <v>8300</v>
@@ -1299,8 +1299,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>-700</v>
       </c>
       <c r="E18" s="3">
         <v>-1000</v>
@@ -1385,8 +1385,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1447,8 +1447,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>-500</v>
       </c>
       <c r="E21" s="3">
         <v>-800</v>
@@ -1757,8 +1757,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
+      <c r="D26" s="3">
+        <v>-1200</v>
       </c>
       <c r="E26" s="3">
         <v>-2000</v>
@@ -1819,8 +1819,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
+      <c r="D27" s="3">
+        <v>-1200</v>
       </c>
       <c r="E27" s="3">
         <v>-2000</v>
@@ -2129,8 +2129,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2191,8 +2191,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
+      <c r="D33" s="3">
+        <v>-1200</v>
       </c>
       <c r="E33" s="3">
         <v>-2000</v>
@@ -2315,8 +2315,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
+      <c r="D35" s="3">
+        <v>-1200</v>
       </c>
       <c r="E35" s="3">
         <v>-2000</v>
@@ -2927,7 +2927,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3400</v>
+        <v>1800</v>
       </c>
       <c r="E48" s="3">
         <v>1900</v>
@@ -4739,8 +4739,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
+      <c r="D81" s="3">
+        <v>-1200</v>
       </c>
       <c r="E81" s="3">
         <v>-2000</v>

--- a/AAII_Financials/Quarterly/PACV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PACV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>PACV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,149 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>18800</v>
+      </c>
+      <c r="F8" s="3">
         <v>7300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>7300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>7500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>8700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>6700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
@@ -815,53 +823,59 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>16600</v>
+      </c>
+      <c r="F9" s="3">
         <v>6400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>6400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>7100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>7700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>5700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
@@ -874,56 +888,62 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F10" s="3">
         <v>900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>800</v>
-      </c>
-      <c r="L10" s="3">
-        <v>300</v>
-      </c>
-      <c r="M10" s="3">
-        <v>300</v>
       </c>
       <c r="N10" s="3">
         <v>300</v>
       </c>
       <c r="O10" s="3">
+        <v>300</v>
+      </c>
+      <c r="P10" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
@@ -936,11 +956,17 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1119,11 +1159,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>5</v>
@@ -1131,11 +1171,11 @@
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1143,14 +1183,20 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1158,7 +1204,7 @@
         <v>200</v>
       </c>
       <c r="E15" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
@@ -1173,10 +1219,10 @@
         <v>200</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8000</v>
+        <v>12800</v>
       </c>
       <c r="E17" s="3">
+        <v>20300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G17" s="3">
         <v>8300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>9100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>9300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>7100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1600</v>
       </c>
       <c r="N17" s="3">
         <v>1400</v>
       </c>
       <c r="O17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>100</v>
-      </c>
-      <c r="R17" s="3">
-        <v>100</v>
-      </c>
-      <c r="S17" s="3">
-        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>100</v>
       </c>
       <c r="U17" s="3">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3">
         <v>100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+      <c r="X17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-700</v>
+        <v>-1100</v>
       </c>
       <c r="E18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-200</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
       <c r="U18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1446,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1440,95 +1508,107 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="E22" s="3">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="F22" s="3">
         <v>500</v>
       </c>
       <c r="G22" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="H22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I22" s="3">
         <v>400</v>
       </c>
       <c r="J22" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K22" s="3">
         <v>400</v>
@@ -1537,25 +1617,25 @@
         <v>200</v>
       </c>
       <c r="M22" s="3">
+        <v>400</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
-        <v>100</v>
-      </c>
       <c r="O22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
       <c r="Q22" s="3">
+        <v>300</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1566,37 +1646,43 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-300</v>
       </c>
       <c r="M23" s="3">
         <v>-500</v>
@@ -1605,16 +1691,16 @@
         <v>-300</v>
       </c>
       <c r="O23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
       </c>
       <c r="S23" s="3">
         <v>-200</v>
@@ -1623,13 +1709,19 @@
         <v>-100</v>
       </c>
       <c r="U23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,37 +1850,43 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-300</v>
       </c>
       <c r="M26" s="3">
         <v>-500</v>
@@ -1791,16 +1895,16 @@
         <v>-300</v>
       </c>
       <c r="O26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
       </c>
       <c r="S26" s="3">
         <v>-200</v>
@@ -1809,42 +1913,48 @@
         <v>-100</v>
       </c>
       <c r="U26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-300</v>
       </c>
       <c r="M27" s="3">
         <v>-500</v>
@@ -1853,16 +1963,16 @@
         <v>-300</v>
       </c>
       <c r="O27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
       </c>
       <c r="S27" s="3">
         <v>-200</v>
@@ -1871,13 +1981,19 @@
         <v>-100</v>
       </c>
       <c r="U27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2258,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2184,39 +2324,45 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-300</v>
       </c>
       <c r="M33" s="3">
         <v>-500</v>
@@ -2225,16 +2371,16 @@
         <v>-300</v>
       </c>
       <c r="O33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
       </c>
       <c r="S33" s="3">
         <v>-200</v>
@@ -2243,13 +2389,19 @@
         <v>-100</v>
       </c>
       <c r="U33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,37 +2462,43 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-300</v>
       </c>
       <c r="M35" s="3">
         <v>-500</v>
@@ -2349,16 +2507,16 @@
         <v>-300</v>
       </c>
       <c r="O35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
       </c>
       <c r="S35" s="3">
         <v>-200</v>
@@ -2367,80 +2525,92 @@
         <v>-100</v>
       </c>
       <c r="U35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2659,10 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2496,43 +2670,43 @@
         <v>500</v>
       </c>
       <c r="E41" s="3">
+        <v>400</v>
+      </c>
+      <c r="F41" s="3">
+        <v>500</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
-      <c r="M41" s="3">
-        <v>100</v>
+      <c r="M41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N41" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -2541,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
@@ -2549,8 +2723,14 @@
       <c r="V41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,52 +2791,58 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E43" s="3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="F43" s="3">
         <v>1400</v>
       </c>
       <c r="G43" s="3">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="H43" s="3">
         <v>1400</v>
       </c>
       <c r="I43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>200</v>
-      </c>
-      <c r="K43" s="3">
-        <v>200</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
       </c>
       <c r="M43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N43" s="3">
         <v>200</v>
       </c>
       <c r="O43" s="3">
+        <v>300</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2670,108 +2856,120 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F44" s="3">
         <v>1300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>400</v>
-      </c>
-      <c r="L44" s="3">
-        <v>200</v>
-      </c>
-      <c r="M44" s="3">
-        <v>200</v>
       </c>
       <c r="N44" s="3">
         <v>200</v>
       </c>
       <c r="O44" s="3">
+        <v>200</v>
+      </c>
+      <c r="P44" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q44" s="3">
         <v>100</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
       </c>
       <c r="H45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>300</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2797,53 +2995,59 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F46" s="3">
         <v>3500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
@@ -2851,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U46" s="3">
         <v>0</v>
@@ -2859,8 +3063,14 @@
       <c r="V46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,34 +3131,40 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G48" s="3">
         <v>1900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2300</v>
-      </c>
-      <c r="J48" s="3">
-        <v>100</v>
-      </c>
-      <c r="K48" s="3">
-        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -2963,10 +3179,10 @@
         <v>100</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2983,34 +3199,40 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F49" s="3">
         <v>3400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>3500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>3600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>3600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>3700</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1000</v>
       </c>
       <c r="L49" s="3">
         <v>1000</v>
@@ -3024,11 +3246,11 @@
       <c r="O49" s="3">
         <v>1000</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
+      <c r="P49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>1000</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>5</v>
@@ -3045,8 +3267,14 @@
       <c r="V49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3210,11 +3450,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>5</v>
@@ -3222,17 +3462,23 @@
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,55 +3539,61 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F54" s="3">
         <v>8700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>8200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>9000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>10000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>9100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>8800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1500</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S54" s="3">
         <v>0</v>
@@ -3350,13 +3602,19 @@
         <v>100</v>
       </c>
       <c r="U54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>100</v>
+      </c>
+      <c r="X54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,61 +3663,63 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G57" s="3">
         <v>2800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
       </c>
       <c r="T57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>200</v>
@@ -3465,99 +3727,111 @@
       <c r="V57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>200</v>
+      </c>
+      <c r="X57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F58" s="3">
         <v>3600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>3300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1400</v>
       </c>
       <c r="J58" s="3">
         <v>1200</v>
       </c>
       <c r="K58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M58" s="3">
         <v>1100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1000</v>
       </c>
       <c r="N58" s="3">
         <v>1000</v>
       </c>
       <c r="O58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q58" s="3">
         <v>900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>400</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
-      </c>
-      <c r="K59" s="3">
-        <v>400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>400</v>
       </c>
       <c r="M59" s="3">
         <v>400</v>
@@ -3572,149 +3846,167 @@
         <v>400</v>
       </c>
       <c r="Q59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S59" s="3">
         <v>300</v>
       </c>
       <c r="T59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U59" s="3">
         <v>300</v>
       </c>
       <c r="V59" s="3">
+        <v>200</v>
+      </c>
+      <c r="W59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F60" s="3">
         <v>7900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>7400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>6000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F61" s="3">
         <v>11300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>10600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>10600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>10200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>9300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>8700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>500</v>
-      </c>
-      <c r="T61" s="3">
-        <v>1000</v>
-      </c>
-      <c r="U61" s="3">
-        <v>1100</v>
       </c>
       <c r="V61" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X61" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3725,23 +4017,23 @@
         <v>700</v>
       </c>
       <c r="F62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H62" s="3">
         <v>800</v>
       </c>
       <c r="I62" s="3">
+        <v>800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>800</v>
+      </c>
+      <c r="K62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3775,8 +4067,14 @@
       <c r="V62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>21300</v>
+      </c>
+      <c r="F66" s="3">
         <v>19900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>18700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>17400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>16500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>14500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>13400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-17100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-16100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-13900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-11900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-10800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-10000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-8000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-7800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-7500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-7000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-6700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-6000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-5700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-5600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-5400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-5400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-11200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-10500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-8400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-6500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-5400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-4600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-1600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,104 +5045,116 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-300</v>
       </c>
       <c r="M81" s="3">
         <v>-500</v>
@@ -4773,16 +5163,16 @@
         <v>-300</v>
       </c>
       <c r="O81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
       </c>
       <c r="S81" s="3">
         <v>-200</v>
@@ -4791,13 +5181,19 @@
         <v>-100</v>
       </c>
       <c r="U81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4829,7 +5227,7 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -4840,11 +5238,11 @@
       <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
+      <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -4855,20 +5253,20 @@
       <c r="M83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4882,8 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,58 +5620,64 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2000</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-400</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-200</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
@@ -5252,10 +5686,16 @@
         <v>-100</v>
       </c>
       <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,34 +5718,36 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
         <v>-100</v>
       </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>5</v>
@@ -5313,18 +5755,18 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
@@ -5334,14 +5776,20 @@
       <c r="T91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5918,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5473,46 +5933,46 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-1100</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5526,8 +5986,14 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6284,82 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>6500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>2000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
-      </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
-      <c r="T100" s="3">
-        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>100</v>
       </c>
       <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,53 +6420,59 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
+        <v>400</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
-      </c>
-      <c r="G102" s="3">
-        <v>300</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-100</v>
       </c>
       <c r="I102" s="3">
         <v>300</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K102" s="3">
+        <v>300</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -5979,9 +6483,15 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PACV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PACV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>PACV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,155 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E8" s="3">
         <v>11700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>18800</v>
-      </c>
-      <c r="F8" s="3">
-        <v>7300</v>
       </c>
       <c r="G8" s="3">
         <v>7300</v>
       </c>
       <c r="H8" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I8" s="3">
         <v>7500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2500</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1300</v>
       </c>
       <c r="O8" s="3">
         <v>1300</v>
       </c>
       <c r="P8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>700</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
@@ -829,56 +832,59 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E9" s="3">
         <v>10400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16600</v>
-      </c>
-      <c r="F9" s="3">
-        <v>6400</v>
       </c>
       <c r="G9" s="3">
         <v>6400</v>
       </c>
       <c r="H9" s="3">
+        <v>6400</v>
+      </c>
+      <c r="I9" s="3">
         <v>7100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1700</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1000</v>
       </c>
       <c r="O9" s="3">
         <v>1000</v>
       </c>
       <c r="P9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q9" s="3">
         <v>900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>500</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
@@ -894,11 +900,14 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -906,34 +915,34 @@
         <v>1300</v>
       </c>
       <c r="E10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F10" s="3">
         <v>2200</v>
-      </c>
-      <c r="F10" s="3">
-        <v>900</v>
       </c>
       <c r="G10" s="3">
         <v>900</v>
       </c>
       <c r="H10" s="3">
+        <v>900</v>
+      </c>
+      <c r="I10" s="3">
         <v>400</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1000</v>
       </c>
       <c r="J10" s="3">
         <v>1000</v>
       </c>
       <c r="K10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>800</v>
-      </c>
-      <c r="N10" s="3">
-        <v>300</v>
       </c>
       <c r="O10" s="3">
         <v>300</v>
@@ -942,11 +951,11 @@
         <v>300</v>
       </c>
       <c r="Q10" s="3">
+        <v>300</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
@@ -962,11 +971,14 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1165,8 +1184,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
@@ -1177,8 +1196,8 @@
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1189,25 +1208,28 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
         <v>200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>400</v>
-      </c>
-      <c r="F15" s="3">
-        <v>200</v>
       </c>
       <c r="G15" s="3">
         <v>200</v>
@@ -1225,7 +1247,7 @@
         <v>200</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E17" s="3">
         <v>12800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>20300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
-      </c>
-      <c r="S17" s="3">
-        <v>100</v>
       </c>
       <c r="T17" s="3">
         <v>100</v>
       </c>
       <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
         <v>200</v>
-      </c>
-      <c r="V17" s="3">
-        <v>100</v>
       </c>
       <c r="W17" s="3">
         <v>100</v>
       </c>
       <c r="X17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-100</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
       <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-100</v>
       </c>
       <c r="W18" s="3">
         <v>-100</v>
       </c>
       <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,20 +1480,21 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1514,98 +1547,104 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-500</v>
       </c>
       <c r="F21" s="3">
         <v>-500</v>
       </c>
       <c r="G21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-100</v>
       </c>
       <c r="N21" s="3">
         <v>-100</v>
       </c>
       <c r="O21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V21" s="3">
-        <v>-100</v>
+      <c r="V21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W21" s="3">
         <v>-100</v>
       </c>
       <c r="X21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>400</v>
       </c>
       <c r="J22" s="3">
         <v>400</v>
@@ -1614,31 +1653,31 @@
         <v>400</v>
       </c>
       <c r="L22" s="3">
+        <v>400</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
-      </c>
-      <c r="N22" s="3">
-        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
       </c>
       <c r="P22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
-      </c>
-      <c r="R22" s="3">
-        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1652,76 +1691,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-2000</v>
       </c>
       <c r="H23" s="3">
         <v>-2000</v>
       </c>
       <c r="I23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-100</v>
       </c>
       <c r="W23" s="3">
         <v>-100</v>
       </c>
       <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-2000</v>
       </c>
       <c r="H26" s="3">
         <v>-2000</v>
       </c>
       <c r="I26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-100</v>
       </c>
       <c r="W26" s="3">
         <v>-100</v>
       </c>
       <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-2000</v>
       </c>
       <c r="H27" s="3">
         <v>-2000</v>
       </c>
       <c r="I27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-100</v>
       </c>
       <c r="W27" s="3">
         <v>-100</v>
       </c>
       <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,20 +2330,23 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2330,78 +2399,84 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-2000</v>
       </c>
       <c r="H33" s="3">
         <v>-2000</v>
       </c>
       <c r="I33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-100</v>
       </c>
       <c r="W33" s="3">
         <v>-100</v>
       </c>
       <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-2000</v>
       </c>
       <c r="H35" s="3">
         <v>-2000</v>
       </c>
       <c r="I35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-100</v>
       </c>
       <c r="W35" s="3">
         <v>-100</v>
       </c>
       <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,56 +2746,57 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
@@ -2721,16 +2807,19 @@
         <v>0</v>
       </c>
       <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
         <v>100</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
       <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,37 +2886,40 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
         <v>1500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1300</v>
-      </c>
-      <c r="L43" s="3">
-        <v>200</v>
       </c>
       <c r="M43" s="3">
         <v>200</v>
@@ -2836,16 +2928,16 @@
         <v>200</v>
       </c>
       <c r="O43" s="3">
+        <v>200</v>
+      </c>
+      <c r="P43" s="3">
         <v>300</v>
-      </c>
-      <c r="P43" s="3">
-        <v>200</v>
       </c>
       <c r="Q43" s="3">
         <v>200</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2862,46 +2954,49 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E44" s="3">
         <v>1600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1200</v>
-      </c>
-      <c r="H44" s="3">
-        <v>1700</v>
       </c>
       <c r="I44" s="3">
         <v>1700</v>
       </c>
       <c r="J44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K44" s="3">
         <v>1300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>400</v>
-      </c>
-      <c r="N44" s="3">
-        <v>200</v>
       </c>
       <c r="O44" s="3">
         <v>200</v>
@@ -2910,39 +3005,42 @@
         <v>200</v>
       </c>
       <c r="Q44" s="3">
+        <v>200</v>
+      </c>
+      <c r="R44" s="3">
         <v>100</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
+      <c r="S44" s="3">
+        <v>0</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U44" s="3">
-        <v>0</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
-      </c>
-      <c r="E45" s="3">
-        <v>300</v>
       </c>
       <c r="F45" s="3">
         <v>300</v>
@@ -2951,10 +3049,10 @@
         <v>300</v>
       </c>
       <c r="H45" s="3">
+        <v>300</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>300</v>
       </c>
       <c r="J45" s="3">
         <v>300</v>
@@ -2963,7 +3061,7 @@
         <v>300</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2972,7 +3070,7 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -3001,56 +3099,59 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E46" s="3">
         <v>4100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2700</v>
-      </c>
-      <c r="L46" s="3">
-        <v>700</v>
       </c>
       <c r="M46" s="3">
         <v>700</v>
       </c>
       <c r="N46" s="3">
+        <v>700</v>
+      </c>
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
@@ -3061,16 +3162,19 @@
         <v>0</v>
       </c>
       <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
         <v>100</v>
       </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
       <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,37 +3241,40 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1800</v>
       </c>
       <c r="F48" s="3">
         <v>1800</v>
       </c>
       <c r="G48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H48" s="3">
         <v>1900</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2100</v>
       </c>
       <c r="I48" s="3">
         <v>2100</v>
       </c>
       <c r="J48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K48" s="3">
         <v>2200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2300</v>
-      </c>
-      <c r="L48" s="3">
-        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -3185,7 +3292,7 @@
         <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3205,37 +3312,40 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E49" s="3">
         <v>3300</v>
       </c>
       <c r="F49" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G49" s="3">
         <v>3400</v>
-      </c>
-      <c r="G49" s="3">
-        <v>3500</v>
       </c>
       <c r="H49" s="3">
         <v>3500</v>
       </c>
       <c r="I49" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="J49" s="3">
         <v>3600</v>
       </c>
       <c r="K49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L49" s="3">
         <v>3700</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1000</v>
       </c>
       <c r="M49" s="3">
         <v>1000</v>
@@ -3252,8 +3362,8 @@
       <c r="Q49" s="3">
         <v>1000</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
+      <c r="R49" s="3">
+        <v>1000</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>5</v>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3456,8 +3575,8 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>5</v>
@@ -3468,17 +3587,20 @@
       <c r="U52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
-      </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,67 +3667,70 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9000</v>
+        <v>7600</v>
       </c>
       <c r="E54" s="3">
         <v>9000</v>
       </c>
       <c r="F54" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G54" s="3">
         <v>8700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8800</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1800</v>
       </c>
       <c r="M54" s="3">
         <v>1800</v>
       </c>
       <c r="N54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O54" s="3">
         <v>1600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1500</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
       <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
         <v>100</v>
       </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
       <c r="V54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W54" s="3">
         <v>100</v>
@@ -3613,8 +3738,11 @@
       <c r="X54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,64 +3794,65 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
         <v>3200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>3000</v>
       </c>
       <c r="F57" s="3">
         <v>3000</v>
       </c>
       <c r="G57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H57" s="3">
         <v>2800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>800</v>
       </c>
       <c r="M57" s="3">
         <v>800</v>
       </c>
       <c r="N57" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="O57" s="3">
         <v>600</v>
       </c>
       <c r="P57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q57" s="3">
         <v>500</v>
       </c>
       <c r="R57" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
       </c>
       <c r="T57" s="3">
+        <v>200</v>
+      </c>
+      <c r="U57" s="3">
         <v>100</v>
-      </c>
-      <c r="U57" s="3">
-        <v>200</v>
       </c>
       <c r="V57" s="3">
         <v>200</v>
@@ -3733,43 +3863,46 @@
       <c r="X57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E58" s="3">
         <v>3700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1900</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1200</v>
       </c>
       <c r="J58" s="3">
         <v>1200</v>
       </c>
       <c r="K58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L58" s="3">
         <v>1400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1000</v>
       </c>
       <c r="O58" s="3">
         <v>1000</v>
@@ -3778,63 +3911,66 @@
         <v>1000</v>
       </c>
       <c r="Q58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R58" s="3">
         <v>900</v>
-      </c>
-      <c r="R58" s="3">
-        <v>800</v>
       </c>
       <c r="S58" s="3">
         <v>800</v>
       </c>
       <c r="T58" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="U58" s="3">
         <v>400</v>
       </c>
       <c r="V58" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <v>100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="E59" s="3">
         <v>1400</v>
       </c>
       <c r="F59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1100</v>
       </c>
       <c r="K59" s="3">
         <v>1100</v>
       </c>
       <c r="L59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M59" s="3">
         <v>700</v>
-      </c>
-      <c r="M59" s="3">
-        <v>400</v>
       </c>
       <c r="N59" s="3">
         <v>400</v>
@@ -3852,7 +3988,7 @@
         <v>400</v>
       </c>
       <c r="S59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T59" s="3">
         <v>300</v>
@@ -3861,16 +3997,19 @@
         <v>300</v>
       </c>
       <c r="V59" s="3">
+        <v>300</v>
+      </c>
+      <c r="W59" s="3">
         <v>200</v>
-      </c>
-      <c r="W59" s="3">
-        <v>300</v>
       </c>
       <c r="X59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3878,140 +4017,146 @@
         <v>8400</v>
       </c>
       <c r="E60" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F60" s="3">
         <v>7000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2000</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1900</v>
       </c>
       <c r="P60" s="3">
         <v>1900</v>
       </c>
       <c r="Q60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R60" s="3">
         <v>1800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E61" s="3">
         <v>13300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>13600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>11300</v>
-      </c>
-      <c r="G61" s="3">
-        <v>10600</v>
       </c>
       <c r="H61" s="3">
         <v>10600</v>
       </c>
       <c r="I61" s="3">
+        <v>10600</v>
+      </c>
+      <c r="J61" s="3">
         <v>10200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2500</v>
-      </c>
-      <c r="N61" s="3">
-        <v>2300</v>
       </c>
       <c r="O61" s="3">
         <v>2300</v>
       </c>
       <c r="P61" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q61" s="3">
         <v>2200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3">
         <v>700</v>
@@ -4023,7 +4168,7 @@
         <v>700</v>
       </c>
       <c r="H62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I62" s="3">
         <v>800</v>
@@ -4032,11 +4177,11 @@
         <v>800</v>
       </c>
       <c r="K62" s="3">
+        <v>800</v>
+      </c>
+      <c r="L62" s="3">
         <v>900</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,8 +4431,11 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4286,67 +4443,70 @@
         <v>22400</v>
       </c>
       <c r="E66" s="3">
+        <v>22400</v>
+      </c>
+      <c r="F66" s="3">
         <v>21300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4700</v>
-      </c>
-      <c r="N66" s="3">
-        <v>4300</v>
       </c>
       <c r="O66" s="3">
         <v>4300</v>
       </c>
       <c r="P66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Q66" s="3">
         <v>4100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1500</v>
-      </c>
-      <c r="U66" s="3">
-        <v>1400</v>
       </c>
       <c r="V66" s="3">
         <v>1400</v>
       </c>
       <c r="W66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X66" s="3">
         <v>1600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-20000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-18200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-17100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-16100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-7800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-7500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-6000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5600</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-5400</v>
       </c>
       <c r="W72" s="3">
         <v>-5400</v>
       </c>
       <c r="X72" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-13500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-12300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-11200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-10500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-8400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-6500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1600</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-1400</v>
       </c>
       <c r="U76" s="3">
         <v>-1400</v>
       </c>
       <c r="V76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="W76" s="3">
         <v>-1300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-2000</v>
       </c>
       <c r="H81" s="3">
         <v>-2000</v>
       </c>
       <c r="I81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-100</v>
       </c>
       <c r="W81" s="3">
         <v>-100</v>
       </c>
       <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,19 +5415,20 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
         <v>200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -5244,8 +5442,8 @@
       <c r="J83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
+      <c r="K83" s="3">
+        <v>200</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>5</v>
@@ -5259,17 +5457,17 @@
       <c r="O83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,61 +5839,64 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1400</v>
+        <v>500</v>
       </c>
       <c r="E89" s="3">
         <v>-1400</v>
       </c>
       <c r="F89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1500</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-600</v>
       </c>
       <c r="J89" s="3">
         <v>-600</v>
       </c>
       <c r="K89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L89" s="3">
         <v>-2000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
@@ -5692,10 +5908,13 @@
         <v>-100</v>
       </c>
       <c r="X89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5729,47 +5949,47 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>5</v>
       </c>
@@ -5782,14 +6002,17 @@
       <c r="V91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5933,49 +6162,49 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-4100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>100</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-1100</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,64 +6532,67 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
-      </c>
-      <c r="S100" s="3">
-        <v>200</v>
       </c>
       <c r="T100" s="3">
         <v>200</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V100" s="3">
         <v>100</v>
@@ -6356,10 +6601,13 @@
         <v>100</v>
       </c>
       <c r="X100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,56 +6674,59 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
-      </c>
-      <c r="E102" s="3">
-        <v>400</v>
       </c>
       <c r="F102" s="3">
         <v>400</v>
       </c>
       <c r="G102" s="3">
+        <v>400</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -6489,9 +6740,12 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PACV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PACV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>PACV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,161 +665,169 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F8" s="3">
         <v>11500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>11700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>18800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>7300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>7300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>7500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>8700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>6700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>700</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
@@ -835,62 +843,68 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F9" s="3">
         <v>10200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>10400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>16600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>6400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>6400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>7100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>7700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>5700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>500</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
@@ -903,65 +917,71 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F10" s="3">
         <v>1300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>800</v>
-      </c>
-      <c r="O10" s="3">
-        <v>300</v>
-      </c>
-      <c r="P10" s="3">
-        <v>300</v>
       </c>
       <c r="Q10" s="3">
         <v>300</v>
       </c>
       <c r="R10" s="3">
+        <v>300</v>
+      </c>
+      <c r="S10" s="3">
+        <v>300</v>
+      </c>
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
@@ -974,11 +994,17 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1187,11 +1227,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>5</v>
@@ -1199,11 +1239,11 @@
       <c r="S14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1211,31 +1251,37 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>5</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
         <v>200</v>
       </c>
       <c r="H15" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I15" s="3">
         <v>200</v>
@@ -1250,10 +1296,10 @@
         <v>200</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F17" s="3">
         <v>12300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>12800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>20300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>7900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>8300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>9100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>9300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>7100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1600</v>
       </c>
       <c r="Q17" s="3">
         <v>1400</v>
       </c>
       <c r="R17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T17" s="3">
         <v>1200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>100</v>
-      </c>
-      <c r="U17" s="3">
-        <v>100</v>
-      </c>
-      <c r="V17" s="3">
-        <v>200</v>
       </c>
       <c r="W17" s="3">
         <v>100</v>
       </c>
       <c r="X17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y17" s="3">
         <v>100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-200</v>
       </c>
       <c r="W18" s="3">
         <v>-100</v>
       </c>
       <c r="X18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,26 +1547,28 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1550,113 +1618,125 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E22" s="3">
         <v>1000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="3">
         <v>1100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>900</v>
       </c>
       <c r="I22" s="3">
         <v>500</v>
       </c>
       <c r="J22" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L22" s="3">
         <v>400</v>
       </c>
       <c r="M22" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N22" s="3">
         <v>400</v>
@@ -1665,25 +1745,25 @@
         <v>200</v>
       </c>
       <c r="P22" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
-        <v>100</v>
-      </c>
       <c r="R22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
       </c>
       <c r="T22" s="3">
+        <v>300</v>
+      </c>
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1694,46 +1774,52 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-300</v>
       </c>
       <c r="P23" s="3">
         <v>-500</v>
@@ -1742,16 +1828,16 @@
         <v>-300</v>
       </c>
       <c r="R23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-100</v>
       </c>
       <c r="V23" s="3">
         <v>-200</v>
@@ -1760,13 +1846,19 @@
         <v>-100</v>
       </c>
       <c r="X23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,46 +2005,52 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-300</v>
       </c>
       <c r="P26" s="3">
         <v>-500</v>
@@ -1955,16 +2059,16 @@
         <v>-300</v>
       </c>
       <c r="R26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-100</v>
       </c>
       <c r="V26" s="3">
         <v>-200</v>
@@ -1973,51 +2077,57 @@
         <v>-100</v>
       </c>
       <c r="X26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-300</v>
       </c>
       <c r="P27" s="3">
         <v>-500</v>
@@ -2026,16 +2136,16 @@
         <v>-300</v>
       </c>
       <c r="R27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-100</v>
       </c>
       <c r="V27" s="3">
         <v>-200</v>
@@ -2044,13 +2154,19 @@
         <v>-100</v>
       </c>
       <c r="X27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,26 +2467,32 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2402,48 +2542,54 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-300</v>
       </c>
       <c r="P33" s="3">
         <v>-500</v>
@@ -2452,16 +2598,16 @@
         <v>-300</v>
       </c>
       <c r="R33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-100</v>
       </c>
       <c r="V33" s="3">
         <v>-200</v>
@@ -2470,13 +2616,19 @@
         <v>-100</v>
       </c>
       <c r="X33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,46 +2698,52 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-300</v>
       </c>
       <c r="P35" s="3">
         <v>-500</v>
@@ -2594,16 +2752,16 @@
         <v>-300</v>
       </c>
       <c r="R35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-100</v>
       </c>
       <c r="V35" s="3">
         <v>-200</v>
@@ -2612,89 +2770,101 @@
         <v>-100</v>
       </c>
       <c r="X35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,61 +2919,63 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E41" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>500</v>
       </c>
       <c r="H41" s="3">
+        <v>400</v>
+      </c>
+      <c r="I41" s="3">
+        <v>500</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
-      <c r="P41" s="3">
-        <v>100</v>
+      <c r="P41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q41" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
@@ -2810,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
@@ -2818,8 +2992,14 @@
       <c r="Y41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,61 +3069,67 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F43" s="3">
         <v>1400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1700</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1200</v>
       </c>
       <c r="I43" s="3">
         <v>1400</v>
       </c>
       <c r="J43" s="3">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K43" s="3">
         <v>1400</v>
       </c>
       <c r="L43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N43" s="3">
         <v>1300</v>
-      </c>
-      <c r="M43" s="3">
-        <v>200</v>
-      </c>
-      <c r="N43" s="3">
-        <v>200</v>
       </c>
       <c r="O43" s="3">
         <v>200</v>
       </c>
       <c r="P43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q43" s="3">
         <v>200</v>
       </c>
       <c r="R43" s="3">
+        <v>300</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -2957,82 +3143,94 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="E44" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F44" s="3">
         <v>1400</v>
       </c>
       <c r="G44" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I44" s="3">
         <v>1300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>400</v>
-      </c>
-      <c r="O44" s="3">
-        <v>200</v>
-      </c>
-      <c r="P44" s="3">
-        <v>200</v>
       </c>
       <c r="Q44" s="3">
         <v>200</v>
       </c>
       <c r="R44" s="3">
+        <v>200</v>
+      </c>
+      <c r="S44" s="3">
+        <v>200</v>
+      </c>
+      <c r="T44" s="3">
         <v>100</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V44" s="3">
-        <v>0</v>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3040,43 +3238,43 @@
         <v>300</v>
       </c>
       <c r="E45" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F45" s="3">
         <v>300</v>
       </c>
       <c r="G45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J45" s="3">
         <v>300</v>
       </c>
       <c r="K45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>300</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3102,62 +3300,68 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F46" s="3">
         <v>3100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
       <c r="U46" s="3">
         <v>0</v>
       </c>
@@ -3165,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X46" s="3">
         <v>0</v>
@@ -3173,8 +3377,14 @@
       <c r="Y46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,43 +3454,49 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F48" s="3">
         <v>1300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2300</v>
-      </c>
-      <c r="M48" s="3">
-        <v>100</v>
-      </c>
-      <c r="N48" s="3">
-        <v>100</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -3295,10 +3511,10 @@
         <v>100</v>
       </c>
       <c r="S48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -3315,43 +3531,49 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E49" s="3">
         <v>3200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G49" s="3">
         <v>3300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>3400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>3500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>3500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>3600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3700</v>
-      </c>
-      <c r="M49" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N49" s="3">
-        <v>1000</v>
       </c>
       <c r="O49" s="3">
         <v>1000</v>
@@ -3365,11 +3587,11 @@
       <c r="R49" s="3">
         <v>1000</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
+      <c r="S49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T49" s="3">
+        <v>1000</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>5</v>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3578,11 +3818,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>5</v>
@@ -3590,17 +3830,23 @@
       <c r="V52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
+      <c r="W52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,64 +3916,70 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F54" s="3">
         <v>7600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>9000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>9000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>8700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>8200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>9000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>9100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1500</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
       <c r="U54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V54" s="3">
         <v>0</v>
@@ -3736,13 +3988,19 @@
         <v>100</v>
       </c>
       <c r="X54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,70 +4055,72 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F57" s="3">
         <v>3500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>200</v>
-      </c>
-      <c r="T57" s="3">
-        <v>200</v>
-      </c>
-      <c r="U57" s="3">
-        <v>100</v>
       </c>
       <c r="V57" s="3">
         <v>200</v>
       </c>
       <c r="W57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X57" s="3">
         <v>200</v>
@@ -3866,117 +4128,129 @@
       <c r="Y57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F58" s="3">
         <v>3200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>3700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>3300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1400</v>
       </c>
       <c r="M58" s="3">
         <v>1200</v>
       </c>
       <c r="N58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P58" s="3">
         <v>1100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>1000</v>
       </c>
       <c r="Q58" s="3">
         <v>1000</v>
       </c>
       <c r="R58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T58" s="3">
         <v>900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>400</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
         <v>100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
-      </c>
-      <c r="N59" s="3">
-        <v>400</v>
-      </c>
-      <c r="O59" s="3">
-        <v>400</v>
       </c>
       <c r="P59" s="3">
         <v>400</v>
@@ -3991,167 +4265,185 @@
         <v>400</v>
       </c>
       <c r="T59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V59" s="3">
         <v>300</v>
       </c>
       <c r="W59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X59" s="3">
         <v>300</v>
       </c>
       <c r="Y59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F60" s="3">
         <v>8400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>8400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>7000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>7900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>7400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>6000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13600</v>
+        <v>14000</v>
       </c>
       <c r="E61" s="3">
-        <v>13300</v>
+        <v>14200</v>
       </c>
       <c r="F61" s="3">
         <v>13600</v>
       </c>
       <c r="G61" s="3">
+        <v>13300</v>
+      </c>
+      <c r="H61" s="3">
+        <v>13600</v>
+      </c>
+      <c r="I61" s="3">
         <v>11300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>10600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>10600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>10200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>9300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>8700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>500</v>
-      </c>
-      <c r="W61" s="3">
-        <v>1000</v>
-      </c>
-      <c r="X61" s="3">
-        <v>1100</v>
       </c>
       <c r="Y61" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4159,10 +4451,10 @@
         <v>400</v>
       </c>
       <c r="E62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="F62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="G62" s="3">
         <v>700</v>
@@ -4171,23 +4463,23 @@
         <v>700</v>
       </c>
       <c r="I62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K62" s="3">
         <v>800</v>
       </c>
       <c r="L62" s="3">
+        <v>800</v>
+      </c>
+      <c r="M62" s="3">
+        <v>800</v>
+      </c>
+      <c r="N62" s="3">
         <v>900</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>23400</v>
+      </c>
+      <c r="F66" s="3">
         <v>22400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>22400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>21300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>19900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>18700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>17400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>16500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>14500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>13400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-21200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-20000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-18200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-17100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-16100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-13900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-11900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-10800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-10000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-8600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-8000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-7800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-7000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-6700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-6300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-6000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-5700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-5600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-5400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-5400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-14700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-13500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-12300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-11200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-10500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-8400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-6500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-5400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-4600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-3300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-2100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-1400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-1400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-1300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,122 +5620,134 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-300</v>
       </c>
       <c r="P81" s="3">
         <v>-500</v>
@@ -5366,16 +5756,16 @@
         <v>-300</v>
       </c>
       <c r="R81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-100</v>
       </c>
       <c r="V81" s="3">
         <v>-200</v>
@@ -5384,13 +5774,19 @@
         <v>-100</v>
       </c>
       <c r="X81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,25 +5812,27 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
@@ -5445,11 +5843,11 @@
       <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
+      <c r="L83" s="3">
+        <v>200</v>
+      </c>
+      <c r="M83" s="3">
+        <v>200</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>5</v>
@@ -5460,20 +5858,20 @@
       <c r="P83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="U83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,67 +6270,73 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2000</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-400</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-800</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-200</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
       </c>
       <c r="V89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W89" s="3">
         <v>-100</v>
@@ -5911,10 +6345,16 @@
         <v>-100</v>
       </c>
       <c r="Y89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,43 +6380,45 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
@@ -5984,18 +6426,18 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>5</v>
       </c>
@@ -6005,14 +6447,20 @@
       <c r="W91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6165,52 +6625,52 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-4100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-1100</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +7021,91 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>6500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>2000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
-      </c>
-      <c r="V100" s="3">
-        <v>100</v>
-      </c>
-      <c r="W100" s="3">
-        <v>100</v>
       </c>
       <c r="X100" s="3">
         <v>100</v>
       </c>
       <c r="Y100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,62 +7175,68 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
-      </c>
-      <c r="J102" s="3">
-        <v>300</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-100</v>
       </c>
       <c r="L102" s="3">
         <v>300</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N102" s="3">
+        <v>300</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -6743,9 +7247,15 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PACV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PACV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>PACV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,176 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10500</v>
+        <v>9900</v>
       </c>
       <c r="E8" s="3">
+        <v>20900</v>
+      </c>
+      <c r="F8" s="3">
         <v>10400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>18800</v>
-      </c>
-      <c r="I8" s="3">
-        <v>7300</v>
       </c>
       <c r="J8" s="3">
         <v>7300</v>
       </c>
       <c r="K8" s="3">
+        <v>7300</v>
+      </c>
+      <c r="L8" s="3">
         <v>7500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2500</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1300</v>
       </c>
       <c r="R8" s="3">
         <v>1300</v>
       </c>
       <c r="S8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T8" s="3">
         <v>1200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>700</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
@@ -849,65 +853,68 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="E9" s="3">
+        <v>17800</v>
+      </c>
+      <c r="F9" s="3">
         <v>8700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>16600</v>
-      </c>
-      <c r="I9" s="3">
-        <v>6400</v>
       </c>
       <c r="J9" s="3">
         <v>6400</v>
       </c>
       <c r="K9" s="3">
+        <v>6400</v>
+      </c>
+      <c r="L9" s="3">
         <v>7100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1000</v>
       </c>
       <c r="R9" s="3">
         <v>1000</v>
       </c>
       <c r="S9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T9" s="3">
         <v>900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>500</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
@@ -923,55 +930,58 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="E10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F10" s="3">
         <v>1700</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1300</v>
       </c>
       <c r="G10" s="3">
         <v>1300</v>
       </c>
       <c r="H10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I10" s="3">
         <v>2200</v>
-      </c>
-      <c r="I10" s="3">
-        <v>900</v>
       </c>
       <c r="J10" s="3">
         <v>900</v>
       </c>
       <c r="K10" s="3">
+        <v>900</v>
+      </c>
+      <c r="L10" s="3">
         <v>400</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1000</v>
       </c>
       <c r="M10" s="3">
         <v>1000</v>
       </c>
       <c r="N10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O10" s="3">
         <v>-100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>800</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>300</v>
       </c>
       <c r="R10" s="3">
         <v>300</v>
@@ -980,11 +990,11 @@
         <v>300</v>
       </c>
       <c r="T10" s="3">
+        <v>300</v>
+      </c>
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1000,11 +1010,14 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1233,8 +1253,8 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>5</v>
@@ -1245,8 +1265,8 @@
       <c r="U14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1257,14 +1277,17 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1272,19 +1295,19 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
+        <v>200</v>
+      </c>
+      <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
       <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>400</v>
-      </c>
-      <c r="I15" s="3">
-        <v>200</v>
       </c>
       <c r="J15" s="3">
         <v>200</v>
@@ -1302,7 +1325,7 @@
         <v>200</v>
       </c>
       <c r="O15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11400</v>
+        <v>10700</v>
       </c>
       <c r="E17" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F17" s="3">
         <v>10500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>20300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
-      </c>
-      <c r="V17" s="3">
-        <v>100</v>
       </c>
       <c r="W17" s="3">
         <v>100</v>
       </c>
       <c r="X17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y17" s="3">
         <v>200</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>100</v>
       </c>
       <c r="Z17" s="3">
         <v>100</v>
       </c>
       <c r="AA17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="E18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
       <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-100</v>
       </c>
       <c r="W18" s="3">
         <v>-100</v>
       </c>
       <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-100</v>
       </c>
       <c r="Z18" s="3">
         <v>-100</v>
       </c>
       <c r="AA18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,29 +1582,30 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1624,116 +1658,122 @@
         <v>0</v>
       </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-500</v>
       </c>
       <c r="I21" s="3">
         <v>-500</v>
       </c>
       <c r="J21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-100</v>
       </c>
       <c r="Q21" s="3">
         <v>-100</v>
       </c>
       <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y21" s="3">
-        <v>-100</v>
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z21" s="3">
         <v>-100</v>
       </c>
       <c r="AA21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="E22" s="3">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="F22" s="3">
         <v>1000</v>
       </c>
       <c r="G22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="3">
         <v>1100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>500</v>
-      </c>
-      <c r="L22" s="3">
-        <v>400</v>
       </c>
       <c r="M22" s="3">
         <v>400</v>
@@ -1742,31 +1782,31 @@
         <v>400</v>
       </c>
       <c r="O22" s="3">
+        <v>400</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>400</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>200</v>
       </c>
       <c r="R22" s="3">
         <v>200</v>
       </c>
       <c r="S22" s="3">
+        <v>200</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>300</v>
-      </c>
-      <c r="U22" s="3">
-        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>100</v>
       </c>
       <c r="W22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1780,85 +1820,91 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-2300</v>
       </c>
-      <c r="E23" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-2000</v>
       </c>
       <c r="K23" s="3">
         <v>-2000</v>
       </c>
       <c r="L23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-100</v>
       </c>
       <c r="Z23" s="3">
         <v>-100</v>
       </c>
       <c r="AA23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-2300</v>
       </c>
-      <c r="E26" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-2000</v>
       </c>
       <c r="K26" s="3">
         <v>-2000</v>
       </c>
       <c r="L26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-100</v>
       </c>
       <c r="Z26" s="3">
         <v>-100</v>
       </c>
       <c r="AA26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-2300</v>
       </c>
-      <c r="E27" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-2000</v>
       </c>
       <c r="K27" s="3">
         <v>-2000</v>
       </c>
       <c r="L27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-100</v>
       </c>
       <c r="Z27" s="3">
         <v>-100</v>
       </c>
       <c r="AA27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,29 +2540,32 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2548,87 +2618,93 @@
         <v>0</v>
       </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-2300</v>
       </c>
-      <c r="E33" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-2000</v>
       </c>
       <c r="K33" s="3">
         <v>-2000</v>
       </c>
       <c r="L33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-100</v>
       </c>
       <c r="Z33" s="3">
         <v>-100</v>
       </c>
       <c r="AA33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-2300</v>
       </c>
-      <c r="E35" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-2000</v>
       </c>
       <c r="K35" s="3">
         <v>-2000</v>
       </c>
       <c r="L35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-100</v>
       </c>
       <c r="Z35" s="3">
         <v>-100</v>
       </c>
       <c r="AA35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,65 +3007,66 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
@@ -2990,16 +3077,19 @@
         <v>0</v>
       </c>
       <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
         <v>100</v>
       </c>
-      <c r="Z41" s="3">
-        <v>0</v>
-      </c>
       <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,46 +3165,49 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E43" s="3">
         <v>1200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1300</v>
-      </c>
-      <c r="O43" s="3">
-        <v>200</v>
       </c>
       <c r="P43" s="3">
         <v>200</v>
@@ -3123,16 +3216,16 @@
         <v>200</v>
       </c>
       <c r="R43" s="3">
+        <v>200</v>
+      </c>
+      <c r="S43" s="3">
         <v>300</v>
-      </c>
-      <c r="S43" s="3">
-        <v>200</v>
       </c>
       <c r="T43" s="3">
         <v>200</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -3149,55 +3242,58 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E44" s="3">
         <v>2000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1200</v>
-      </c>
-      <c r="K44" s="3">
-        <v>1700</v>
       </c>
       <c r="L44" s="3">
         <v>1700</v>
       </c>
       <c r="M44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N44" s="3">
         <v>1300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>400</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>200</v>
       </c>
       <c r="R44" s="3">
         <v>200</v>
@@ -3206,36 +3302,39 @@
         <v>200</v>
       </c>
       <c r="T44" s="3">
+        <v>200</v>
+      </c>
+      <c r="U44" s="3">
         <v>100</v>
       </c>
-      <c r="U44" s="3">
-        <v>0</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
+      <c r="V44" s="3">
+        <v>0</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="3" t="s">
-        <v>5</v>
+      <c r="X44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
       </c>
       <c r="Z44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
@@ -3244,10 +3343,10 @@
         <v>300</v>
       </c>
       <c r="G45" s="3">
+        <v>300</v>
+      </c>
+      <c r="H45" s="3">
         <v>500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>300</v>
       </c>
       <c r="I45" s="3">
         <v>300</v>
@@ -3256,10 +3355,10 @@
         <v>300</v>
       </c>
       <c r="K45" s="3">
+        <v>300</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>300</v>
       </c>
       <c r="M45" s="3">
         <v>300</v>
@@ -3268,7 +3367,7 @@
         <v>300</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -3277,7 +3376,7 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3306,65 +3405,68 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E46" s="3">
         <v>4000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2700</v>
-      </c>
-      <c r="O46" s="3">
-        <v>700</v>
       </c>
       <c r="P46" s="3">
         <v>700</v>
       </c>
       <c r="Q46" s="3">
+        <v>700</v>
+      </c>
+      <c r="R46" s="3">
         <v>500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>400</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
       <c r="V46" s="3">
         <v>0</v>
       </c>
@@ -3375,16 +3477,19 @@
         <v>0</v>
       </c>
       <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
         <v>100</v>
       </c>
-      <c r="Z46" s="3">
-        <v>0</v>
-      </c>
       <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,46 +3565,49 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1600</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1800</v>
       </c>
       <c r="I48" s="3">
         <v>1800</v>
       </c>
       <c r="J48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K48" s="3">
         <v>1900</v>
-      </c>
-      <c r="K48" s="3">
-        <v>2100</v>
       </c>
       <c r="L48" s="3">
         <v>2100</v>
       </c>
       <c r="M48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N48" s="3">
         <v>2200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2300</v>
-      </c>
-      <c r="O48" s="3">
-        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -3517,7 +3625,7 @@
         <v>100</v>
       </c>
       <c r="U48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3546,37 +3657,37 @@
         <v>3100</v>
       </c>
       <c r="E49" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F49" s="3">
         <v>3200</v>
       </c>
       <c r="G49" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="H49" s="3">
         <v>3300</v>
       </c>
       <c r="I49" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J49" s="3">
         <v>3400</v>
-      </c>
-      <c r="J49" s="3">
-        <v>3500</v>
       </c>
       <c r="K49" s="3">
         <v>3500</v>
       </c>
       <c r="L49" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="M49" s="3">
         <v>3600</v>
       </c>
       <c r="N49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O49" s="3">
         <v>3700</v>
-      </c>
-      <c r="O49" s="3">
-        <v>1000</v>
       </c>
       <c r="P49" s="3">
         <v>1000</v>
@@ -3593,8 +3704,8 @@
       <c r="T49" s="3">
         <v>1000</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
+      <c r="U49" s="3">
+        <v>1000</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>5</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3824,8 +3944,8 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
+      <c r="U52" s="3">
+        <v>0</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>5</v>
@@ -3836,17 +3956,20 @@
       <c r="X52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="3" t="s">
-        <v>5</v>
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,76 +4045,79 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E54" s="3">
         <v>8300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7600</v>
-      </c>
-      <c r="G54" s="3">
-        <v>9000</v>
       </c>
       <c r="H54" s="3">
         <v>9000</v>
       </c>
       <c r="I54" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J54" s="3">
         <v>8700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8800</v>
-      </c>
-      <c r="O54" s="3">
-        <v>1800</v>
       </c>
       <c r="P54" s="3">
         <v>1800</v>
       </c>
       <c r="Q54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R54" s="3">
         <v>1600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1500</v>
       </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
       <c r="V54" s="3">
         <v>0</v>
       </c>
       <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3">
         <v>100</v>
       </c>
-      <c r="X54" s="3">
-        <v>0</v>
-      </c>
       <c r="Y54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="3">
         <v>100</v>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,73 +4187,74 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E57" s="3">
         <v>3600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>3000</v>
       </c>
       <c r="I57" s="3">
         <v>3000</v>
       </c>
       <c r="J57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K57" s="3">
         <v>2800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>800</v>
       </c>
       <c r="P57" s="3">
         <v>800</v>
       </c>
       <c r="Q57" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="R57" s="3">
         <v>600</v>
       </c>
       <c r="S57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T57" s="3">
         <v>500</v>
       </c>
       <c r="U57" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="V57" s="3">
         <v>200</v>
       </c>
       <c r="W57" s="3">
+        <v>200</v>
+      </c>
+      <c r="X57" s="3">
         <v>100</v>
-      </c>
-      <c r="X57" s="3">
-        <v>200</v>
       </c>
       <c r="Y57" s="3">
         <v>200</v>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4143,43 +4277,43 @@
         <v>4500</v>
       </c>
       <c r="E58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F58" s="3">
         <v>3300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1900</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1200</v>
       </c>
       <c r="M58" s="3">
         <v>1200</v>
       </c>
       <c r="N58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O58" s="3">
         <v>1400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>1000</v>
       </c>
       <c r="R58" s="3">
         <v>1000</v>
@@ -4188,31 +4322,34 @@
         <v>1000</v>
       </c>
       <c r="T58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U58" s="3">
         <v>900</v>
-      </c>
-      <c r="U58" s="3">
-        <v>800</v>
       </c>
       <c r="V58" s="3">
         <v>800</v>
       </c>
       <c r="W58" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="X58" s="3">
         <v>400</v>
       </c>
       <c r="Y58" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
         <v>100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4223,37 +4360,37 @@
         <v>1800</v>
       </c>
       <c r="F59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G59" s="3">
         <v>1700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1400</v>
       </c>
       <c r="H59" s="3">
         <v>1400</v>
       </c>
       <c r="I59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1100</v>
       </c>
       <c r="N59" s="3">
         <v>1100</v>
       </c>
       <c r="O59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P59" s="3">
         <v>700</v>
-      </c>
-      <c r="P59" s="3">
-        <v>400</v>
       </c>
       <c r="Q59" s="3">
         <v>400</v>
@@ -4271,7 +4408,7 @@
         <v>400</v>
       </c>
       <c r="V59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W59" s="3">
         <v>300</v>
@@ -4280,170 +4417,179 @@
         <v>300</v>
       </c>
       <c r="Y59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z59" s="3">
         <v>200</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>300</v>
       </c>
       <c r="AA59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E60" s="3">
         <v>9900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8900</v>
-      </c>
-      <c r="F60" s="3">
-        <v>8400</v>
       </c>
       <c r="G60" s="3">
         <v>8400</v>
       </c>
       <c r="H60" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I60" s="3">
         <v>7000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2000</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1900</v>
       </c>
       <c r="S60" s="3">
         <v>1900</v>
       </c>
       <c r="T60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U60" s="3">
         <v>1800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E61" s="3">
         <v>14000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>14200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>13600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>13300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>13600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>11300</v>
-      </c>
-      <c r="J61" s="3">
-        <v>10600</v>
       </c>
       <c r="K61" s="3">
         <v>10600</v>
       </c>
       <c r="L61" s="3">
+        <v>10600</v>
+      </c>
+      <c r="M61" s="3">
         <v>10200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2500</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>2300</v>
       </c>
       <c r="R61" s="3">
         <v>2300</v>
       </c>
       <c r="S61" s="3">
+        <v>2300</v>
+      </c>
+      <c r="T61" s="3">
         <v>2200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4457,7 +4603,7 @@
         <v>400</v>
       </c>
       <c r="G62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="H62" s="3">
         <v>700</v>
@@ -4469,7 +4615,7 @@
         <v>700</v>
       </c>
       <c r="K62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L62" s="3">
         <v>800</v>
@@ -4478,11 +4624,11 @@
         <v>800</v>
       </c>
       <c r="N62" s="3">
+        <v>800</v>
+      </c>
+      <c r="O62" s="3">
         <v>900</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E66" s="3">
         <v>24300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23400</v>
-      </c>
-      <c r="F66" s="3">
-        <v>22400</v>
       </c>
       <c r="G66" s="3">
         <v>22400</v>
       </c>
       <c r="H66" s="3">
+        <v>22400</v>
+      </c>
+      <c r="I66" s="3">
         <v>21300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4700</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>4300</v>
       </c>
       <c r="R66" s="3">
         <v>4300</v>
       </c>
       <c r="S66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="T66" s="3">
         <v>4100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1500</v>
-      </c>
-      <c r="X66" s="3">
-        <v>1400</v>
       </c>
       <c r="Y66" s="3">
         <v>1400</v>
       </c>
       <c r="Z66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AA66" s="3">
         <v>1600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-24600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-22300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-21200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-20000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-18200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-17100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-16100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-7800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-7500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-7000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-6700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-6300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-6000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-5700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-5600</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>-5400</v>
       </c>
       <c r="Z72" s="3">
         <v>-5400</v>
       </c>
       <c r="AA72" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-16000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-15600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-14700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-13500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-12300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-11200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-10500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-8400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-6500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1600</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-1400</v>
       </c>
       <c r="X76" s="3">
         <v>-1400</v>
       </c>
       <c r="Y76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-2300</v>
       </c>
-      <c r="E81" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-2000</v>
       </c>
       <c r="K81" s="3">
         <v>-2000</v>
       </c>
       <c r="L81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-100</v>
       </c>
       <c r="Z81" s="3">
         <v>-100</v>
       </c>
       <c r="AA81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5823,19 +6022,19 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
+        <v>200</v>
+      </c>
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
@@ -5849,8 +6048,8 @@
       <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
+      <c r="N83" s="3">
+        <v>200</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>5</v>
@@ -5864,17 +6063,17 @@
       <c r="R83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3">
-        <v>0</v>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,70 +6490,73 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2200</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>500</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-1400</v>
       </c>
       <c r="H89" s="3">
         <v>-1400</v>
       </c>
       <c r="I89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1500</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-600</v>
       </c>
       <c r="M89" s="3">
         <v>-600</v>
       </c>
       <c r="N89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O89" s="3">
         <v>-2000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-100</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
@@ -6351,10 +6568,13 @@
         <v>-100</v>
       </c>
       <c r="AA89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6393,54 +6614,54 @@
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>5</v>
       </c>
@@ -6453,14 +6674,17 @@
       <c r="Y91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6631,49 +6861,49 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-4100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>100</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-100</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
       </c>
       <c r="R94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-1100</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="V94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,73 +7270,76 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2600</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
-      </c>
-      <c r="V100" s="3">
-        <v>200</v>
       </c>
       <c r="W100" s="3">
         <v>200</v>
       </c>
       <c r="X100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y100" s="3">
         <v>100</v>
@@ -7102,10 +7348,13 @@
         <v>100</v>
       </c>
       <c r="AA100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,65 +7430,68 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>500</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>400</v>
       </c>
       <c r="I102" s="3">
         <v>400</v>
       </c>
       <c r="J102" s="3">
+        <v>400</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
@@ -7253,9 +7505,12 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PACV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PACV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>PACV</t>
   </si>
@@ -6608,17 +6608,17 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -6626,8 +6626,8 @@
       <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/PACV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PACV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>PACV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,182 +665,189 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F8" s="3">
         <v>9900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>20900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>10400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>11500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>11700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>18800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>7300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>7300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>7500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>8700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>6700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>700</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
       <c r="X8" s="3">
         <v>0</v>
       </c>
@@ -856,71 +863,77 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8700</v>
+        <v>6400</v>
       </c>
       <c r="E9" s="3">
-        <v>17800</v>
+        <v>8200</v>
       </c>
       <c r="F9" s="3">
         <v>8700</v>
       </c>
       <c r="G9" s="3">
+        <v>17800</v>
+      </c>
+      <c r="H9" s="3">
+        <v>8700</v>
+      </c>
+      <c r="I9" s="3">
         <v>10200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>10400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>16600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>6400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>6400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>7100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>7700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>5700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>500</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
@@ -933,74 +946,80 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>900</v>
+      </c>
+      <c r="F10" s="3">
         <v>1200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>3100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>800</v>
-      </c>
-      <c r="R10" s="3">
-        <v>300</v>
-      </c>
-      <c r="S10" s="3">
-        <v>300</v>
       </c>
       <c r="T10" s="3">
         <v>300</v>
       </c>
       <c r="U10" s="3">
+        <v>300</v>
+      </c>
+      <c r="V10" s="3">
+        <v>300</v>
+      </c>
+      <c r="W10" s="3">
         <v>200</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1013,11 +1032,17 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1239,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1256,11 +1295,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>5</v>
@@ -1268,11 +1307,11 @@
       <c r="V14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1280,14 +1319,20 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>5</v>
+      <c r="AA14" s="3">
+        <v>0</v>
       </c>
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1295,25 +1340,25 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <v>200</v>
       </c>
       <c r="K15" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L15" s="3">
         <v>200</v>
@@ -1328,10 +1373,10 @@
         <v>200</v>
       </c>
       <c r="P15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1444,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F17" s="3">
         <v>10700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>22000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>10500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>12300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>12800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>20300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>7900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>8300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>9100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>9300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>7100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2600</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1400</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1600</v>
       </c>
       <c r="T17" s="3">
         <v>1400</v>
       </c>
       <c r="U17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W17" s="3">
         <v>1200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>100</v>
-      </c>
-      <c r="X17" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>200</v>
       </c>
       <c r="Z17" s="3">
         <v>100</v>
       </c>
       <c r="AA17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB17" s="3">
         <v>100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-100</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-200</v>
       </c>
       <c r="Z18" s="3">
         <v>-100</v>
       </c>
       <c r="AA18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,35 +1648,37 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1661,131 +1728,143 @@
         <v>0</v>
       </c>
       <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E22" s="3">
-        <v>2400</v>
+        <v>1100</v>
       </c>
       <c r="F22" s="3">
         <v>1000</v>
       </c>
       <c r="G22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="3">
         <v>1100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>900</v>
       </c>
       <c r="L22" s="3">
         <v>500</v>
       </c>
       <c r="M22" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O22" s="3">
         <v>400</v>
       </c>
       <c r="P22" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q22" s="3">
         <v>400</v>
@@ -1794,25 +1873,25 @@
         <v>200</v>
       </c>
       <c r="S22" s="3">
+        <v>400</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
-        <v>100</v>
-      </c>
       <c r="U22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V22" s="3">
         <v>100</v>
       </c>
       <c r="W22" s="3">
+        <v>300</v>
+      </c>
+      <c r="X22" s="3">
         <v>100</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
       <c r="Y22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1823,55 +1902,61 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-300</v>
       </c>
       <c r="S23" s="3">
         <v>-500</v>
@@ -1880,16 +1965,16 @@
         <v>-300</v>
       </c>
       <c r="U23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W23" s="3">
         <v>-700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-500</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-100</v>
       </c>
       <c r="Y23" s="3">
         <v>-200</v>
@@ -1898,13 +1983,19 @@
         <v>-100</v>
       </c>
       <c r="AA23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,55 +2160,61 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-300</v>
       </c>
       <c r="S26" s="3">
         <v>-500</v>
@@ -2120,16 +2223,16 @@
         <v>-300</v>
       </c>
       <c r="U26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W26" s="3">
         <v>-700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-500</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-100</v>
       </c>
       <c r="Y26" s="3">
         <v>-200</v>
@@ -2138,60 +2241,66 @@
         <v>-100</v>
       </c>
       <c r="AA26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-300</v>
       </c>
       <c r="S27" s="3">
         <v>-500</v>
@@ -2200,16 +2309,16 @@
         <v>-300</v>
       </c>
       <c r="U27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W27" s="3">
         <v>-700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-500</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-100</v>
       </c>
       <c r="Y27" s="3">
         <v>-200</v>
@@ -2218,13 +2327,19 @@
         <v>-100</v>
       </c>
       <c r="AA27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,35 +2676,41 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2621,57 +2760,63 @@
         <v>0</v>
       </c>
       <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-300</v>
       </c>
       <c r="S33" s="3">
         <v>-500</v>
@@ -2680,16 +2825,16 @@
         <v>-300</v>
       </c>
       <c r="U33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W33" s="3">
         <v>-700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-500</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-100</v>
       </c>
       <c r="Y33" s="3">
         <v>-200</v>
@@ -2698,13 +2843,19 @@
         <v>-100</v>
       </c>
       <c r="AA33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,55 +2934,61 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-300</v>
       </c>
       <c r="S35" s="3">
         <v>-500</v>
@@ -2840,16 +2997,16 @@
         <v>-300</v>
       </c>
       <c r="U35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W35" s="3">
         <v>-700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-500</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-100</v>
       </c>
       <c r="Y35" s="3">
         <v>-200</v>
@@ -2858,98 +3015,110 @@
         <v>-100</v>
       </c>
       <c r="AA35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,70 +3179,72 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>500</v>
-      </c>
       <c r="I41" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>500</v>
       </c>
       <c r="K41" s="3">
+        <v>400</v>
+      </c>
+      <c r="L41" s="3">
+        <v>500</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
-      <c r="S41" s="3">
-        <v>100</v>
+      <c r="S41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T41" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>100</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
@@ -3080,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="3">
         <v>0</v>
@@ -3088,8 +3261,14 @@
       <c r="AB41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,70 +3347,76 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1700</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1200</v>
       </c>
       <c r="L43" s="3">
         <v>1400</v>
       </c>
       <c r="M43" s="3">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="N43" s="3">
         <v>1400</v>
       </c>
       <c r="O43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q43" s="3">
         <v>1300</v>
-      </c>
-      <c r="P43" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>200</v>
       </c>
       <c r="R43" s="3">
         <v>200</v>
       </c>
       <c r="S43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T43" s="3">
         <v>200</v>
       </c>
       <c r="U43" s="3">
+        <v>300</v>
+      </c>
+      <c r="V43" s="3">
         <v>200</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
-      </c>
       <c r="W43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
@@ -3245,91 +3430,103 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>900</v>
+      </c>
+      <c r="F44" s="3">
         <v>1400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>2000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1700</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H44" s="3">
-        <v>1600</v>
       </c>
       <c r="I44" s="3">
         <v>1400</v>
       </c>
       <c r="J44" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L44" s="3">
         <v>1300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>400</v>
-      </c>
-      <c r="R44" s="3">
-        <v>200</v>
-      </c>
-      <c r="S44" s="3">
-        <v>200</v>
       </c>
       <c r="T44" s="3">
         <v>200</v>
       </c>
       <c r="U44" s="3">
+        <v>200</v>
+      </c>
+      <c r="V44" s="3">
+        <v>200</v>
+      </c>
+      <c r="W44" s="3">
         <v>100</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
-      </c>
-      <c r="W44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>0</v>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3340,49 +3537,49 @@
         <v>300</v>
       </c>
       <c r="F45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
       </c>
       <c r="H45" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I45" s="3">
         <v>300</v>
       </c>
       <c r="J45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
       </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M45" s="3">
         <v>300</v>
       </c>
       <c r="N45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>300</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3408,71 +3605,77 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F46" s="3">
         <v>3400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>400</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
       <c r="X46" s="3">
         <v>0</v>
       </c>
@@ -3480,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="Z46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="3">
         <v>0</v>
@@ -3488,8 +3691,14 @@
       <c r="AB46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,52 +3777,58 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>700</v>
+      </c>
+      <c r="F48" s="3">
         <v>1000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2300</v>
-      </c>
-      <c r="P48" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>100</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
@@ -3628,10 +3843,10 @@
         <v>100</v>
       </c>
       <c r="V48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X48" s="3">
         <v>0</v>
@@ -3648,52 +3863,58 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F49" s="3">
         <v>3100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>3100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>3200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>3300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>3300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>3400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>3600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>3600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>3700</v>
-      </c>
-      <c r="P49" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>1000</v>
       </c>
       <c r="R49" s="3">
         <v>1000</v>
@@ -3707,11 +3928,11 @@
       <c r="U49" s="3">
         <v>1000</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
+      <c r="V49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W49" s="3">
+        <v>1000</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>5</v>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3947,11 +4186,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>5</v>
@@ -3959,17 +4198,23 @@
       <c r="Y52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z52" s="3">
-        <v>0</v>
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,73 +4293,79 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F54" s="3">
         <v>7600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>8300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>7800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>7600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>9000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>9000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>8700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>8200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>9000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>10000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>9100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>8800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1500</v>
       </c>
-      <c r="V54" s="3">
-        <v>0</v>
-      </c>
-      <c r="W54" s="3">
-        <v>0</v>
-      </c>
       <c r="X54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="3">
         <v>0</v>
@@ -4123,13 +4374,19 @@
         <v>100</v>
       </c>
       <c r="AA54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,79 +4447,81 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F57" s="3">
         <v>3900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>200</v>
-      </c>
-      <c r="W57" s="3">
-        <v>200</v>
-      </c>
-      <c r="X57" s="3">
-        <v>100</v>
       </c>
       <c r="Y57" s="3">
         <v>200</v>
       </c>
       <c r="Z57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA57" s="3">
         <v>200</v>
@@ -4268,88 +4529,100 @@
       <c r="AB57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F58" s="3">
         <v>4500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>4500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>3700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1200</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1400</v>
       </c>
       <c r="P58" s="3">
         <v>1200</v>
       </c>
       <c r="Q58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S58" s="3">
         <v>1100</v>
-      </c>
-      <c r="R58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="S58" s="3">
-        <v>1000</v>
       </c>
       <c r="T58" s="3">
         <v>1000</v>
       </c>
       <c r="U58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W58" s="3">
         <v>900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>400</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
         <v>100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4357,46 +4630,46 @@
         <v>1800</v>
       </c>
       <c r="E59" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F59" s="3">
         <v>1800</v>
       </c>
       <c r="G59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>400</v>
-      </c>
-      <c r="R59" s="3">
-        <v>400</v>
       </c>
       <c r="S59" s="3">
         <v>400</v>
@@ -4411,193 +4684,211 @@
         <v>400</v>
       </c>
       <c r="W59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Y59" s="3">
         <v>300</v>
       </c>
       <c r="Z59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AA59" s="3">
         <v>300</v>
       </c>
       <c r="AB59" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F60" s="3">
         <v>10200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>9900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>8900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>8400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>8400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>7000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>6000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>14900</v>
+      </c>
+      <c r="F61" s="3">
         <v>14300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>14000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>14200</v>
-      </c>
-      <c r="G61" s="3">
-        <v>13600</v>
-      </c>
-      <c r="H61" s="3">
-        <v>13300</v>
       </c>
       <c r="I61" s="3">
         <v>13600</v>
       </c>
       <c r="J61" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K61" s="3">
+        <v>13600</v>
+      </c>
+      <c r="L61" s="3">
         <v>11300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>10600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>10600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>10200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>9300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>8700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>2300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>2200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>500</v>
-      </c>
-      <c r="Z61" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AA61" s="3">
-        <v>1100</v>
       </c>
       <c r="AB61" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>400</v>
@@ -4606,10 +4897,10 @@
         <v>400</v>
       </c>
       <c r="H62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="I62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="J62" s="3">
         <v>700</v>
@@ -4618,23 +4909,23 @@
         <v>700</v>
       </c>
       <c r="L62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N62" s="3">
         <v>800</v>
       </c>
       <c r="O62" s="3">
+        <v>800</v>
+      </c>
+      <c r="P62" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q62" s="3">
         <v>900</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F66" s="3">
         <v>24900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>24300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>23400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>22400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>22400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>21300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>19900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>18700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>17400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>16500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>14500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>13400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>4300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>4100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>3600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-26300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-24600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-22300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-21200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-20000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-18200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-17100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-16100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-13900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-11900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-10800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-10000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-8000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-7800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-7500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-7000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-6700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-6300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-6000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-5400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-5400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-17300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-16000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-15600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-14700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-13500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-12300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-11200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-10500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-8400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-6500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-5400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-4600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-2700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-2600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-2300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-2100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-1800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-1600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,140 +6195,152 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-300</v>
       </c>
       <c r="S81" s="3">
         <v>-500</v>
@@ -5960,16 +6349,16 @@
         <v>-300</v>
       </c>
       <c r="U81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W81" s="3">
         <v>-700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-500</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-100</v>
       </c>
       <c r="Y81" s="3">
         <v>-200</v>
@@ -5978,13 +6367,19 @@
         <v>-100</v>
       </c>
       <c r="AA81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6022,25 +6419,25 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
       </c>
       <c r="K83" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
@@ -6051,11 +6448,11 @@
       <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
+      <c r="O83" s="3">
+        <v>200</v>
+      </c>
+      <c r="P83" s="3">
+        <v>200</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>5</v>
@@ -6066,20 +6463,20 @@
       <c r="S83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
       </c>
-      <c r="X83" s="3">
-        <v>0</v>
+      <c r="X83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y83" s="3">
         <v>0</v>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,76 +6920,82 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-2000</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-400</v>
       </c>
       <c r="R89" s="3">
         <v>-200</v>
       </c>
       <c r="S89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-800</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-200</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
       </c>
       <c r="Y89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Z89" s="3">
         <v>-100</v>
@@ -6571,10 +7004,16 @@
         <v>-100</v>
       </c>
       <c r="AB89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7042,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6630,25 +7071,25 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>5</v>
@@ -6656,18 +7097,18 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>5</v>
       </c>
@@ -6677,14 +7118,20 @@
       <c r="Z91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7296,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6852,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -6864,52 +7323,52 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-4100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-1100</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-      <c r="X94" s="3">
-        <v>0</v>
+      <c r="X94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
@@ -6923,8 +7382,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7758,14 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7282,79 +7773,85 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>3000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>6500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>2000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>200</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>100</v>
       </c>
       <c r="AA100" s="3">
         <v>100</v>
       </c>
       <c r="AB100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7930,14 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7442,62 +7945,62 @@
         <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
-      </c>
-      <c r="M102" s="3">
-        <v>300</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-100</v>
       </c>
       <c r="O102" s="3">
         <v>300</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q102" s="3">
+        <v>300</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
@@ -7508,9 +8011,15 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PACV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PACV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>PACV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,196 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E8" s="3">
         <v>7700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>20900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18800</v>
-      </c>
-      <c r="L8" s="3">
-        <v>7300</v>
       </c>
       <c r="M8" s="3">
         <v>7300</v>
       </c>
       <c r="N8" s="3">
+        <v>7300</v>
+      </c>
+      <c r="O8" s="3">
         <v>7500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2500</v>
-      </c>
-      <c r="T8" s="3">
-        <v>1300</v>
       </c>
       <c r="U8" s="3">
         <v>1300</v>
       </c>
       <c r="V8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W8" s="3">
         <v>1200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>700</v>
       </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
       <c r="Y8" s="3">
         <v>0</v>
       </c>
@@ -869,74 +873,77 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E9" s="3">
         <v>6400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>17800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16600</v>
-      </c>
-      <c r="L9" s="3">
-        <v>6400</v>
       </c>
       <c r="M9" s="3">
         <v>6400</v>
       </c>
       <c r="N9" s="3">
+        <v>6400</v>
+      </c>
+      <c r="O9" s="3">
         <v>7100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1700</v>
-      </c>
-      <c r="T9" s="3">
-        <v>1000</v>
       </c>
       <c r="U9" s="3">
         <v>1000</v>
       </c>
       <c r="V9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W9" s="3">
         <v>900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>500</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
@@ -952,64 +959,67 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>900</v>
+      </c>
+      <c r="E10" s="3">
         <v>1300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1700</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1300</v>
       </c>
       <c r="J10" s="3">
         <v>1300</v>
       </c>
       <c r="K10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L10" s="3">
         <v>2200</v>
-      </c>
-      <c r="L10" s="3">
-        <v>900</v>
       </c>
       <c r="M10" s="3">
         <v>900</v>
       </c>
       <c r="N10" s="3">
+        <v>900</v>
+      </c>
+      <c r="O10" s="3">
         <v>400</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1000</v>
       </c>
       <c r="P10" s="3">
         <v>1000</v>
       </c>
       <c r="Q10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>800</v>
-      </c>
-      <c r="T10" s="3">
-        <v>300</v>
       </c>
       <c r="U10" s="3">
         <v>300</v>
@@ -1018,11 +1028,11 @@
         <v>300</v>
       </c>
       <c r="W10" s="3">
+        <v>300</v>
+      </c>
+      <c r="X10" s="3">
         <v>200</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1038,11 +1048,14 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1301,8 +1321,8 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>5</v>
@@ -1313,8 +1333,8 @@
       <c r="X14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
@@ -1325,14 +1345,17 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,28 +1363,28 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3">
         <v>300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
       <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>400</v>
-      </c>
-      <c r="L15" s="3">
-        <v>200</v>
       </c>
       <c r="M15" s="3">
         <v>200</v>
@@ -1379,7 +1402,7 @@
         <v>200</v>
       </c>
       <c r="R15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,8 +1472,9 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1455,171 +1482,177 @@
         <v>7900</v>
       </c>
       <c r="E17" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F17" s="3">
         <v>10400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>22000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>100</v>
       </c>
       <c r="Z17" s="3">
         <v>100</v>
       </c>
       <c r="AA17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB17" s="3">
         <v>200</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>100</v>
       </c>
       <c r="AC17" s="3">
         <v>100</v>
       </c>
       <c r="AD17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-100</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
       <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-100</v>
       </c>
       <c r="Z18" s="3">
         <v>-100</v>
       </c>
       <c r="AA18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-200</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>-100</v>
       </c>
       <c r="AC18" s="3">
         <v>-100</v>
       </c>
       <c r="AD18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,38 +1683,39 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1734,134 +1768,140 @@
         <v>0</v>
       </c>
       <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-500</v>
       </c>
       <c r="L21" s="3">
         <v>-500</v>
       </c>
       <c r="M21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-100</v>
       </c>
       <c r="T21" s="3">
         <v>-100</v>
       </c>
       <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-100</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB21" s="3">
-        <v>-100</v>
+      <c r="AB21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AC21" s="3">
         <v>-100</v>
       </c>
       <c r="AD21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1000</v>
       </c>
       <c r="I22" s="3">
         <v>1000</v>
       </c>
       <c r="J22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K22" s="3">
         <v>1100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>500</v>
-      </c>
-      <c r="O22" s="3">
-        <v>400</v>
       </c>
       <c r="P22" s="3">
         <v>400</v>
@@ -1870,31 +1910,31 @@
         <v>400</v>
       </c>
       <c r="R22" s="3">
+        <v>400</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>400</v>
-      </c>
-      <c r="T22" s="3">
-        <v>200</v>
       </c>
       <c r="U22" s="3">
         <v>200</v>
       </c>
       <c r="V22" s="3">
+        <v>200</v>
+      </c>
+      <c r="W22" s="3">
         <v>100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>300</v>
-      </c>
-      <c r="X22" s="3">
-        <v>100</v>
       </c>
       <c r="Y22" s="3">
         <v>100</v>
       </c>
       <c r="Z22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
@@ -1908,94 +1948,100 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-2000</v>
       </c>
       <c r="N23" s="3">
         <v>-2000</v>
       </c>
       <c r="O23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-200</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>-100</v>
       </c>
       <c r="AC23" s="3">
         <v>-100</v>
       </c>
       <c r="AD23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-2000</v>
       </c>
       <c r="N26" s="3">
         <v>-2000</v>
       </c>
       <c r="O26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-200</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>-100</v>
       </c>
       <c r="AC26" s="3">
         <v>-100</v>
       </c>
       <c r="AD26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-2000</v>
       </c>
       <c r="N27" s="3">
         <v>-2000</v>
       </c>
       <c r="O27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-200</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>-100</v>
       </c>
       <c r="AC27" s="3">
         <v>-100</v>
       </c>
       <c r="AD27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,38 +2749,41 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2766,96 +2836,102 @@
         <v>0</v>
       </c>
       <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-2000</v>
       </c>
       <c r="N33" s="3">
         <v>-2000</v>
       </c>
       <c r="O33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-200</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>-100</v>
       </c>
       <c r="AC33" s="3">
         <v>-100</v>
       </c>
       <c r="AD33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-2000</v>
       </c>
       <c r="N35" s="3">
         <v>-2000</v>
       </c>
       <c r="O35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-200</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>-100</v>
       </c>
       <c r="AC35" s="3">
         <v>-100</v>
       </c>
       <c r="AD35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,74 +3267,75 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>300</v>
+      <c r="D41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E41" s="3">
         <v>300</v>
       </c>
       <c r="F41" s="3">
+        <v>300</v>
+      </c>
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0</v>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>100</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
@@ -3259,16 +3346,19 @@
         <v>0</v>
       </c>
       <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3">
         <v>100</v>
       </c>
-      <c r="AC41" s="3">
-        <v>0</v>
-      </c>
       <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,55 +3443,58 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
         <v>700</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1100</v>
       </c>
       <c r="F43" s="3">
         <v>1100</v>
       </c>
       <c r="G43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1300</v>
-      </c>
-      <c r="R43" s="3">
-        <v>200</v>
       </c>
       <c r="S43" s="3">
         <v>200</v>
@@ -3410,16 +3503,16 @@
         <v>200</v>
       </c>
       <c r="U43" s="3">
+        <v>200</v>
+      </c>
+      <c r="V43" s="3">
         <v>300</v>
-      </c>
-      <c r="V43" s="3">
-        <v>200</v>
       </c>
       <c r="W43" s="3">
         <v>200</v>
       </c>
       <c r="X43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y43" s="3">
         <v>0</v>
@@ -3436,11 +3529,14 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-      <c r="AD43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3448,52 +3544,52 @@
         <v>1200</v>
       </c>
       <c r="E44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F44" s="3">
         <v>900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1200</v>
-      </c>
-      <c r="N44" s="3">
-        <v>1700</v>
       </c>
       <c r="O44" s="3">
         <v>1700</v>
       </c>
       <c r="P44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>400</v>
-      </c>
-      <c r="T44" s="3">
-        <v>200</v>
       </c>
       <c r="U44" s="3">
         <v>200</v>
@@ -3502,31 +3598,34 @@
         <v>200</v>
       </c>
       <c r="W44" s="3">
+        <v>200</v>
+      </c>
+      <c r="X44" s="3">
         <v>100</v>
       </c>
-      <c r="X44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="3" t="s">
-        <v>5</v>
+      <c r="Y44" s="3">
+        <v>0</v>
       </c>
       <c r="Z44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA44" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="3" t="s">
-        <v>5</v>
+      <c r="AA44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
       </c>
       <c r="AC44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3534,13 +3633,13 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>300</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
@@ -3549,10 +3648,10 @@
         <v>300</v>
       </c>
       <c r="J45" s="3">
+        <v>300</v>
+      </c>
+      <c r="K45" s="3">
         <v>500</v>
-      </c>
-      <c r="K45" s="3">
-        <v>300</v>
       </c>
       <c r="L45" s="3">
         <v>300</v>
@@ -3561,10 +3660,10 @@
         <v>300</v>
       </c>
       <c r="N45" s="3">
+        <v>300</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
-      </c>
-      <c r="O45" s="3">
-        <v>300</v>
       </c>
       <c r="P45" s="3">
         <v>300</v>
@@ -3573,7 +3672,7 @@
         <v>300</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
@@ -3582,7 +3681,7 @@
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3611,74 +3710,77 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E46" s="3">
         <v>2400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2700</v>
-      </c>
-      <c r="R46" s="3">
-        <v>700</v>
       </c>
       <c r="S46" s="3">
         <v>700</v>
       </c>
       <c r="T46" s="3">
+        <v>700</v>
+      </c>
+      <c r="U46" s="3">
         <v>500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>400</v>
       </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
       <c r="Y46" s="3">
         <v>0</v>
       </c>
@@ -3689,16 +3791,19 @@
         <v>0</v>
       </c>
       <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
         <v>100</v>
       </c>
-      <c r="AC46" s="3">
-        <v>0</v>
-      </c>
       <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3795,43 +3903,43 @@
         <v>700</v>
       </c>
       <c r="F48" s="3">
+        <v>700</v>
+      </c>
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1600</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1800</v>
       </c>
       <c r="L48" s="3">
         <v>1800</v>
       </c>
       <c r="M48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N48" s="3">
         <v>1900</v>
-      </c>
-      <c r="N48" s="3">
-        <v>2100</v>
       </c>
       <c r="O48" s="3">
         <v>2100</v>
       </c>
       <c r="P48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q48" s="3">
         <v>2200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2300</v>
-      </c>
-      <c r="R48" s="3">
-        <v>100</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
@@ -3849,7 +3957,7 @@
         <v>100</v>
       </c>
       <c r="X48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y48" s="3">
         <v>0</v>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3878,46 +3989,46 @@
         <v>2800</v>
       </c>
       <c r="E49" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F49" s="3">
         <v>2900</v>
-      </c>
-      <c r="F49" s="3">
-        <v>3100</v>
       </c>
       <c r="G49" s="3">
         <v>3100</v>
       </c>
       <c r="H49" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="I49" s="3">
         <v>3200</v>
       </c>
       <c r="J49" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="K49" s="3">
         <v>3300</v>
       </c>
       <c r="L49" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M49" s="3">
         <v>3400</v>
-      </c>
-      <c r="M49" s="3">
-        <v>3500</v>
       </c>
       <c r="N49" s="3">
         <v>3500</v>
       </c>
       <c r="O49" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="P49" s="3">
         <v>3600</v>
       </c>
       <c r="Q49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="R49" s="3">
         <v>3700</v>
-      </c>
-      <c r="R49" s="3">
-        <v>1000</v>
       </c>
       <c r="S49" s="3">
         <v>1000</v>
@@ -3934,8 +4045,8 @@
       <c r="W49" s="3">
         <v>1000</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>5</v>
+      <c r="X49" s="3">
+        <v>1000</v>
       </c>
       <c r="Y49" s="3" t="s">
         <v>5</v>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4192,8 +4312,8 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
+      <c r="X52" s="3">
+        <v>0</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>5</v>
@@ -4204,17 +4324,20 @@
       <c r="AA52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB52" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="3" t="s">
-        <v>5</v>
+      <c r="AB52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
       </c>
       <c r="AD52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,85 +4422,88 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E54" s="3">
         <v>5900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7600</v>
-      </c>
-      <c r="J54" s="3">
-        <v>9000</v>
       </c>
       <c r="K54" s="3">
         <v>9000</v>
       </c>
       <c r="L54" s="3">
+        <v>9000</v>
+      </c>
+      <c r="M54" s="3">
         <v>8700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8800</v>
-      </c>
-      <c r="R54" s="3">
-        <v>1800</v>
       </c>
       <c r="S54" s="3">
         <v>1800</v>
       </c>
       <c r="T54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U54" s="3">
         <v>1600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1500</v>
       </c>
-      <c r="X54" s="3">
-        <v>0</v>
-      </c>
       <c r="Y54" s="3">
         <v>0</v>
       </c>
       <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3">
         <v>100</v>
       </c>
-      <c r="AA54" s="3">
-        <v>0</v>
-      </c>
       <c r="AB54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC54" s="3">
         <v>100</v>
@@ -4385,8 +4511,11 @@
       <c r="AD54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,82 +4579,83 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E57" s="3">
         <v>4000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>3000</v>
       </c>
       <c r="L57" s="3">
         <v>3000</v>
       </c>
       <c r="M57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N57" s="3">
         <v>2800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1400</v>
-      </c>
-      <c r="R57" s="3">
-        <v>800</v>
       </c>
       <c r="S57" s="3">
         <v>800</v>
       </c>
       <c r="T57" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="U57" s="3">
         <v>600</v>
       </c>
       <c r="V57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="W57" s="3">
         <v>500</v>
       </c>
       <c r="X57" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Y57" s="3">
         <v>200</v>
       </c>
       <c r="Z57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA57" s="3">
         <v>100</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>200</v>
       </c>
       <c r="AB57" s="3">
         <v>200</v>
@@ -4535,61 +4666,64 @@
       <c r="AD57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E58" s="3">
         <v>5500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>4500</v>
       </c>
       <c r="G58" s="3">
         <v>4500</v>
       </c>
       <c r="H58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I58" s="3">
         <v>3300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1900</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1200</v>
       </c>
       <c r="P58" s="3">
         <v>1200</v>
       </c>
       <c r="Q58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R58" s="3">
         <v>1400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1100</v>
-      </c>
-      <c r="T58" s="3">
-        <v>1000</v>
       </c>
       <c r="U58" s="3">
         <v>1000</v>
@@ -4598,42 +4732,45 @@
         <v>1000</v>
       </c>
       <c r="W58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X58" s="3">
         <v>900</v>
-      </c>
-      <c r="X58" s="3">
-        <v>800</v>
       </c>
       <c r="Y58" s="3">
         <v>800</v>
       </c>
       <c r="Z58" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="AA58" s="3">
         <v>400</v>
       </c>
       <c r="AB58" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
         <v>100</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1800</v>
       </c>
       <c r="G59" s="3">
         <v>1800</v>
@@ -4642,37 +4779,37 @@
         <v>1800</v>
       </c>
       <c r="I59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J59" s="3">
         <v>1700</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1400</v>
       </c>
       <c r="K59" s="3">
         <v>1400</v>
       </c>
       <c r="L59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1300</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1100</v>
       </c>
       <c r="Q59" s="3">
         <v>1100</v>
       </c>
       <c r="R59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S59" s="3">
         <v>700</v>
-      </c>
-      <c r="S59" s="3">
-        <v>400</v>
       </c>
       <c r="T59" s="3">
         <v>400</v>
@@ -4690,7 +4827,7 @@
         <v>400</v>
       </c>
       <c r="Y59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Z59" s="3">
         <v>300</v>
@@ -4699,188 +4836,197 @@
         <v>300</v>
       </c>
       <c r="AB59" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC59" s="3">
         <v>200</v>
-      </c>
-      <c r="AC59" s="3">
-        <v>300</v>
       </c>
       <c r="AD59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E60" s="3">
         <v>11300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8900</v>
-      </c>
-      <c r="I60" s="3">
-        <v>8400</v>
       </c>
       <c r="J60" s="3">
         <v>8400</v>
       </c>
       <c r="K60" s="3">
+        <v>8400</v>
+      </c>
+      <c r="L60" s="3">
         <v>7000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2000</v>
-      </c>
-      <c r="U60" s="3">
-        <v>1900</v>
       </c>
       <c r="V60" s="3">
         <v>1900</v>
       </c>
       <c r="W60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="X60" s="3">
         <v>1800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>600</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E61" s="3">
         <v>15300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>14900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>14300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>14000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>14200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>13600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>13300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11300</v>
-      </c>
-      <c r="M61" s="3">
-        <v>10600</v>
       </c>
       <c r="N61" s="3">
         <v>10600</v>
       </c>
       <c r="O61" s="3">
+        <v>10600</v>
+      </c>
+      <c r="P61" s="3">
         <v>10200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2500</v>
-      </c>
-      <c r="T61" s="3">
-        <v>2300</v>
       </c>
       <c r="U61" s="3">
         <v>2300</v>
       </c>
       <c r="V61" s="3">
+        <v>2300</v>
+      </c>
+      <c r="W61" s="3">
         <v>2200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1100</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4888,10 +5034,10 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
+        <v>200</v>
+      </c>
+      <c r="F62" s="3">
         <v>100</v>
-      </c>
-      <c r="F62" s="3">
-        <v>400</v>
       </c>
       <c r="G62" s="3">
         <v>400</v>
@@ -4903,7 +5049,7 @@
         <v>400</v>
       </c>
       <c r="J62" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K62" s="3">
         <v>700</v>
@@ -4915,7 +5061,7 @@
         <v>700</v>
       </c>
       <c r="N62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="O62" s="3">
         <v>800</v>
@@ -4924,11 +5070,11 @@
         <v>800</v>
       </c>
       <c r="Q62" s="3">
+        <v>800</v>
+      </c>
+      <c r="R62" s="3">
         <v>900</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E66" s="3">
         <v>26800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>26000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>24900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>24300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23400</v>
-      </c>
-      <c r="I66" s="3">
-        <v>22400</v>
       </c>
       <c r="J66" s="3">
         <v>22400</v>
       </c>
       <c r="K66" s="3">
+        <v>22400</v>
+      </c>
+      <c r="L66" s="3">
         <v>21300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4700</v>
-      </c>
-      <c r="T66" s="3">
-        <v>4300</v>
       </c>
       <c r="U66" s="3">
         <v>4300</v>
       </c>
       <c r="V66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="W66" s="3">
         <v>4100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1500</v>
-      </c>
-      <c r="AA66" s="3">
-        <v>1400</v>
       </c>
       <c r="AB66" s="3">
         <v>1400</v>
       </c>
       <c r="AC66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AD66" s="3">
         <v>1600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-30000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-29000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-26300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-24600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-22300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-21200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-20000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-18200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-17100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-10000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-8000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-7800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-7500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-7000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-6700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-6000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-5700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-5600</v>
-      </c>
-      <c r="AB72" s="3">
-        <v>-5400</v>
       </c>
       <c r="AC72" s="3">
         <v>-5400</v>
       </c>
       <c r="AD72" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="AE72" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-20900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-19900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-17300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-16000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-15600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-14700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-13500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-12300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-11200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-10500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-8400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-6500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-4600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-2100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1600</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>-1400</v>
       </c>
       <c r="AA76" s="3">
         <v>-1400</v>
       </c>
       <c r="AB76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="AC76" s="3">
         <v>-1300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-1600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-2000</v>
       </c>
       <c r="N81" s="3">
         <v>-2000</v>
       </c>
       <c r="O81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-200</v>
-      </c>
-      <c r="AB81" s="3">
-        <v>-100</v>
       </c>
       <c r="AC81" s="3">
         <v>-100</v>
       </c>
       <c r="AD81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6425,22 +6624,22 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
@@ -6454,8 +6653,8 @@
       <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
+      <c r="Q83" s="3">
+        <v>200</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>5</v>
@@ -6469,17 +6668,17 @@
       <c r="U83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
+      <c r="V83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>0</v>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z83" s="3">
         <v>0</v>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,79 +7140,82 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>500</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-1400</v>
       </c>
       <c r="K89" s="3">
         <v>-1400</v>
       </c>
       <c r="L89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1500</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-600</v>
       </c>
       <c r="P89" s="3">
         <v>-600</v>
       </c>
       <c r="Q89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R89" s="3">
         <v>-2000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-200</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-100</v>
       </c>
       <c r="AA89" s="3">
         <v>-100</v>
@@ -7010,10 +7227,13 @@
         <v>-100</v>
       </c>
       <c r="AD89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7059,59 +7280,59 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y91" s="3" t="s">
         <v>5</v>
       </c>
@@ -7124,14 +7345,17 @@
       <c r="AB91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC91" s="3">
-        <v>0</v>
+      <c r="AC91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7311,11 +7541,11 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -7329,49 +7559,49 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-4100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>100</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-100</v>
       </c>
       <c r="T94" s="3">
         <v>-100</v>
       </c>
       <c r="U94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-1100</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>0</v>
+      <c r="Y94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z94" s="3">
         <v>0</v>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,82 +8007,85 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>6500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>100</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>200</v>
       </c>
       <c r="Z100" s="3">
         <v>200</v>
       </c>
       <c r="AA100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB100" s="3">
         <v>100</v>
@@ -7848,10 +8094,13 @@
         <v>100</v>
       </c>
       <c r="AD100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,74 +8185,77 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>400</v>
       </c>
       <c r="L102" s="3">
         <v>400</v>
       </c>
       <c r="M102" s="3">
+        <v>400</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
@@ -8017,9 +8269,12 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>-100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>100</v>
       </c>
     </row>
